--- a/raw_data/20200818_saline/20200818_Sensor2_Test_87.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_87.xlsx
@@ -1,1566 +1,1982 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF0EDA1-28E1-4363-AB1E-E066379FFD92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>77774.656523</v>
+        <v>77774.656522999998</v>
       </c>
       <c r="B2" s="1">
-        <v>21.604071</v>
+        <v>21.604071000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>1248.010000</v>
+        <v>1248.01</v>
       </c>
       <c r="D2" s="1">
-        <v>-304.289000</v>
+        <v>-304.28899999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>77785.083420</v>
+        <v>77785.083419999995</v>
       </c>
       <c r="G2" s="1">
-        <v>21.606968</v>
+        <v>21.606967999999998</v>
       </c>
       <c r="H2" s="1">
-        <v>1273.790000</v>
+        <v>1273.79</v>
       </c>
       <c r="I2" s="1">
-        <v>-263.729000</v>
+        <v>-263.72899999999998</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>77795.598112</v>
+        <v>77795.598112000007</v>
       </c>
       <c r="L2" s="1">
-        <v>21.609888</v>
+        <v>21.609888000000002</v>
       </c>
       <c r="M2" s="1">
-        <v>1310.150000</v>
+        <v>1310.1500000000001</v>
       </c>
       <c r="N2" s="1">
-        <v>-203.650000</v>
+        <v>-203.65</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>77806.112305</v>
+        <v>77806.112305000002</v>
       </c>
       <c r="Q2" s="1">
-        <v>21.612809</v>
+        <v>21.612808999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>1322.510000</v>
+        <v>1322.51</v>
       </c>
       <c r="S2" s="1">
-        <v>-185.975000</v>
+        <v>-185.97499999999999</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>77816.720243</v>
+        <v>77816.720243000003</v>
       </c>
       <c r="V2" s="1">
-        <v>21.615756</v>
+        <v>21.615756000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>1336.610000</v>
+        <v>1336.61</v>
       </c>
       <c r="X2" s="1">
-        <v>-172.829000</v>
+        <v>-172.82900000000001</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>77827.137255</v>
+        <v>77827.137254999994</v>
       </c>
       <c r="AA2" s="1">
-        <v>21.618649</v>
+        <v>21.618649000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>1354.660000</v>
+        <v>1354.66</v>
       </c>
       <c r="AC2" s="1">
-        <v>-170.772000</v>
+        <v>-170.77199999999999</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
         <v>77837.701512</v>
       </c>
       <c r="AF2" s="1">
-        <v>21.621584</v>
+        <v>21.621583999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>1368.430000</v>
+        <v>1368.43</v>
       </c>
       <c r="AH2" s="1">
-        <v>-180.484000</v>
+        <v>-180.48400000000001</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>77848.130426</v>
+        <v>77848.130426000003</v>
       </c>
       <c r="AK2" s="1">
-        <v>21.624481</v>
+        <v>21.624480999999999</v>
       </c>
       <c r="AL2" s="1">
-        <v>1389.690000</v>
+        <v>1389.69</v>
       </c>
       <c r="AM2" s="1">
-        <v>-210.088000</v>
+        <v>-210.08799999999999</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
         <v>77859.024523</v>
       </c>
       <c r="AP2" s="1">
-        <v>21.627507</v>
+        <v>21.627507000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1412.160000</v>
+        <v>1412.16</v>
       </c>
       <c r="AR2" s="1">
-        <v>-253.408000</v>
+        <v>-253.40799999999999</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>77869.794157</v>
+        <v>77869.794156999997</v>
       </c>
       <c r="AU2" s="1">
-        <v>21.630498</v>
+        <v>21.630497999999999</v>
       </c>
       <c r="AV2" s="1">
-        <v>1437.490000</v>
+        <v>1437.49</v>
       </c>
       <c r="AW2" s="1">
-        <v>-312.574000</v>
+        <v>-312.57400000000001</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>77880.579662</v>
+        <v>77880.579662000004</v>
       </c>
       <c r="AZ2" s="1">
-        <v>21.633494</v>
+        <v>21.633493999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>1457.360000</v>
+        <v>1457.36</v>
       </c>
       <c r="BB2" s="1">
-        <v>-364.020000</v>
+        <v>-364.02</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>77891.178672</v>
+        <v>77891.178671999995</v>
       </c>
       <c r="BE2" s="1">
-        <v>21.636439</v>
+        <v>21.636438999999999</v>
       </c>
       <c r="BF2" s="1">
-        <v>1544.280000</v>
+        <v>1544.28</v>
       </c>
       <c r="BG2" s="1">
-        <v>-608.520000</v>
+        <v>-608.52</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>77901.862498</v>
+        <v>77901.862498000002</v>
       </c>
       <c r="BJ2" s="1">
-        <v>21.639406</v>
+        <v>21.639406000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1700.710000</v>
+        <v>1700.71</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1045.810000</v>
+        <v>-1045.81</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>77912.965480</v>
+        <v>77912.965479999999</v>
       </c>
       <c r="BO2" s="1">
-        <v>21.642490</v>
+        <v>21.642489999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1997.680000</v>
+        <v>1997.68</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1800.320000</v>
+        <v>-1800.32</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>77924.429973</v>
+        <v>77924.429973000006</v>
       </c>
       <c r="BT2" s="1">
-        <v>21.645675</v>
+        <v>21.645675000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>2387.630000</v>
+        <v>2387.63</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2665.740000</v>
+        <v>-2665.74</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>77935.222918</v>
+        <v>77935.222917999999</v>
       </c>
       <c r="BY2" s="1">
-        <v>21.648673</v>
+        <v>21.648672999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2869.230000</v>
+        <v>2869.23</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3609.410000</v>
+        <v>-3609.41</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>77946.110637</v>
+        <v>77946.110637000005</v>
       </c>
       <c r="CD2" s="1">
-        <v>21.651697</v>
+        <v>21.651696999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>4268.020000</v>
+        <v>4268.0200000000004</v>
       </c>
       <c r="CF2" s="1">
-        <v>-5859.170000</v>
+        <v>-5859.17</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>77775.037983</v>
+        <v>77775.037983000002</v>
       </c>
       <c r="B3" s="1">
         <v>21.604177</v>
       </c>
       <c r="C3" s="1">
-        <v>1247.870000</v>
+        <v>1247.8699999999999</v>
       </c>
       <c r="D3" s="1">
-        <v>-303.975000</v>
+        <v>-303.97500000000002</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>77785.810590</v>
+        <v>77785.810589999994</v>
       </c>
       <c r="G3" s="1">
-        <v>21.607170</v>
+        <v>21.60717</v>
       </c>
       <c r="H3" s="1">
-        <v>1273.380000</v>
+        <v>1273.3800000000001</v>
       </c>
       <c r="I3" s="1">
-        <v>-264.613000</v>
+        <v>-264.613</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>77796.328718</v>
+        <v>77796.328718000004</v>
       </c>
       <c r="L3" s="1">
-        <v>21.610091</v>
+        <v>21.610091000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>1310.070000</v>
+        <v>1310.07</v>
       </c>
       <c r="N3" s="1">
-        <v>-203.839000</v>
+        <v>-203.839</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>77806.495713</v>
+        <v>77806.495712999997</v>
       </c>
       <c r="Q3" s="1">
-        <v>21.612915</v>
+        <v>21.612915000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>1322.560000</v>
+        <v>1322.56</v>
       </c>
       <c r="S3" s="1">
-        <v>-185.942000</v>
+        <v>-185.94200000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>77817.063474</v>
+        <v>77817.063473999995</v>
       </c>
       <c r="V3" s="1">
-        <v>21.615851</v>
+        <v>21.615850999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>1336.520000</v>
+        <v>1336.52</v>
       </c>
       <c r="X3" s="1">
-        <v>-172.766000</v>
+        <v>-172.76599999999999</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>77827.490869</v>
+        <v>77827.490869000001</v>
       </c>
       <c r="AA3" s="1">
-        <v>21.618747</v>
+        <v>21.618746999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>1354.610000</v>
+        <v>1354.61</v>
       </c>
       <c r="AC3" s="1">
-        <v>-170.730000</v>
+        <v>-170.73</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>77838.391943</v>
+        <v>77838.391942999995</v>
       </c>
       <c r="AF3" s="1">
-        <v>21.621776</v>
+        <v>21.621776000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>1368.040000</v>
+        <v>1368.04</v>
       </c>
       <c r="AH3" s="1">
-        <v>-180.611000</v>
+        <v>-180.61099999999999</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>77848.836200</v>
+        <v>77848.836200000005</v>
       </c>
       <c r="AK3" s="1">
-        <v>21.624677</v>
+        <v>21.624676999999998</v>
       </c>
       <c r="AL3" s="1">
-        <v>1389.720000</v>
+        <v>1389.72</v>
       </c>
       <c r="AM3" s="1">
-        <v>-210.062000</v>
+        <v>-210.06200000000001</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>77859.457531</v>
+        <v>77859.457530999993</v>
       </c>
       <c r="AP3" s="1">
         <v>21.627627</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1412.150000</v>
+        <v>1412.15</v>
       </c>
       <c r="AR3" s="1">
-        <v>-253.408000</v>
+        <v>-253.40799999999999</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>77870.161692</v>
+        <v>77870.161691999994</v>
       </c>
       <c r="AU3" s="1">
-        <v>21.630600</v>
+        <v>21.630600000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>1437.510000</v>
+        <v>1437.51</v>
       </c>
       <c r="AW3" s="1">
-        <v>-312.610000</v>
+        <v>-312.61</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>77880.974974</v>
+        <v>77880.974973999997</v>
       </c>
       <c r="AZ3" s="1">
-        <v>21.633604</v>
+        <v>21.633603999999998</v>
       </c>
       <c r="BA3" s="1">
-        <v>1457.360000</v>
+        <v>1457.36</v>
       </c>
       <c r="BB3" s="1">
-        <v>-363.964000</v>
+        <v>-363.964</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>77891.579440</v>
+        <v>77891.579440000001</v>
       </c>
       <c r="BE3" s="1">
-        <v>21.636550</v>
+        <v>21.63655</v>
       </c>
       <c r="BF3" s="1">
-        <v>1544.330000</v>
+        <v>1544.33</v>
       </c>
       <c r="BG3" s="1">
-        <v>-608.516000</v>
+        <v>-608.51599999999996</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>77902.294514</v>
+        <v>77902.294513999994</v>
       </c>
       <c r="BJ3" s="1">
         <v>21.639526</v>
       </c>
       <c r="BK3" s="1">
-        <v>1700.610000</v>
+        <v>1700.61</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1045.850000</v>
+        <v>-1045.8499999999999</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>77913.395475</v>
+        <v>77913.395474999998</v>
       </c>
       <c r="BO3" s="1">
-        <v>21.642610</v>
+        <v>21.642610000000001</v>
       </c>
       <c r="BP3" s="1">
-        <v>1997.530000</v>
+        <v>1997.53</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1800.650000</v>
+        <v>-1800.65</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>77924.606548</v>
+        <v>77924.606547999996</v>
       </c>
       <c r="BT3" s="1">
-        <v>21.645724</v>
+        <v>21.645724000000001</v>
       </c>
       <c r="BU3" s="1">
-        <v>2387.220000</v>
+        <v>2387.2199999999998</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2665.700000</v>
+        <v>-2665.7</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>77935.709990</v>
+        <v>77935.709990000003</v>
       </c>
       <c r="BY3" s="1">
-        <v>21.648808</v>
+        <v>21.648807999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2868.690000</v>
+        <v>2868.69</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3610.170000</v>
+        <v>-3610.17</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>77946.704311</v>
+        <v>77946.704310999994</v>
       </c>
       <c r="CD3" s="1">
-        <v>21.651862</v>
+        <v>21.651862000000001</v>
       </c>
       <c r="CE3" s="1">
-        <v>4276.490000</v>
+        <v>4276.49</v>
       </c>
       <c r="CF3" s="1">
-        <v>-5875.400000</v>
+        <v>-5875.4</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>77775.724442</v>
+        <v>77775.724442000006</v>
       </c>
       <c r="B4" s="1">
-        <v>21.604368</v>
+        <v>21.604368000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>1247.810000</v>
+        <v>1247.81</v>
       </c>
       <c r="D4" s="1">
-        <v>-303.898000</v>
+        <v>-303.89800000000002</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>77786.154316</v>
       </c>
       <c r="G4" s="1">
-        <v>21.607265</v>
+        <v>21.607265000000002</v>
       </c>
       <c r="H4" s="1">
-        <v>1272.710000</v>
+        <v>1272.71</v>
       </c>
       <c r="I4" s="1">
-        <v>-264.103000</v>
+        <v>-264.10300000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>77796.675421</v>
+        <v>77796.675421000007</v>
       </c>
       <c r="L4" s="1">
-        <v>21.610188</v>
+        <v>21.610188000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>1310.420000</v>
+        <v>1310.42</v>
       </c>
       <c r="N4" s="1">
-        <v>-203.670000</v>
+        <v>-203.67</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>77806.842944</v>
+        <v>77806.842944000004</v>
       </c>
       <c r="Q4" s="1">
-        <v>21.613012</v>
+        <v>21.613012000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>1322.670000</v>
+        <v>1322.67</v>
       </c>
       <c r="S4" s="1">
-        <v>-186.035000</v>
+        <v>-186.035</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>77817.716210</v>
+        <v>77817.716209999999</v>
       </c>
       <c r="V4" s="1">
-        <v>21.616032</v>
+        <v>21.616032000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>1336.430000</v>
+        <v>1336.43</v>
       </c>
       <c r="X4" s="1">
-        <v>-172.804000</v>
+        <v>-172.804</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>77828.161131</v>
+        <v>77828.161131000001</v>
       </c>
       <c r="AA4" s="1">
-        <v>21.618934</v>
+        <v>21.618933999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>1354.660000</v>
+        <v>1354.66</v>
       </c>
       <c r="AC4" s="1">
-        <v>-170.752000</v>
+        <v>-170.75200000000001</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>77838.765943</v>
+        <v>77838.765943000006</v>
       </c>
       <c r="AF4" s="1">
         <v>21.621879</v>
       </c>
       <c r="AG4" s="1">
-        <v>1368.290000</v>
+        <v>1368.29</v>
       </c>
       <c r="AH4" s="1">
-        <v>-180.369000</v>
+        <v>-180.369</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>77849.215145</v>
+        <v>77849.215144999995</v>
       </c>
       <c r="AK4" s="1">
         <v>21.624782</v>
       </c>
       <c r="AL4" s="1">
-        <v>1389.700000</v>
+        <v>1389.7</v>
       </c>
       <c r="AM4" s="1">
-        <v>-210.077000</v>
+        <v>-210.077</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>77859.816634</v>
+        <v>77859.816634000003</v>
       </c>
       <c r="AP4" s="1">
         <v>21.627727</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1412.150000</v>
+        <v>1412.15</v>
       </c>
       <c r="AR4" s="1">
-        <v>-253.370000</v>
+        <v>-253.37</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>77870.524035</v>
+        <v>77870.524034999995</v>
       </c>
       <c r="AU4" s="1">
-        <v>21.630701</v>
+        <v>21.630700999999998</v>
       </c>
       <c r="AV4" s="1">
-        <v>1437.510000</v>
+        <v>1437.51</v>
       </c>
       <c r="AW4" s="1">
-        <v>-312.592000</v>
+        <v>-312.59199999999998</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>77881.353454</v>
+        <v>77881.353453999996</v>
       </c>
       <c r="AZ4" s="1">
         <v>21.633709</v>
       </c>
       <c r="BA4" s="1">
-        <v>1457.350000</v>
+        <v>1457.35</v>
       </c>
       <c r="BB4" s="1">
-        <v>-363.960000</v>
+        <v>-363.96</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>77892.003520</v>
+        <v>77892.003519999998</v>
       </c>
       <c r="BE4" s="1">
         <v>21.636668</v>
       </c>
       <c r="BF4" s="1">
-        <v>1544.270000</v>
+        <v>1544.27</v>
       </c>
       <c r="BG4" s="1">
-        <v>-608.520000</v>
+        <v>-608.52</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>77902.640225</v>
+        <v>77902.640224999996</v>
       </c>
       <c r="BJ4" s="1">
-        <v>21.639622</v>
+        <v>21.639621999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1700.630000</v>
+        <v>1700.63</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1045.880000</v>
+        <v>-1045.8800000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>77913.824020</v>
+        <v>77913.82402</v>
       </c>
       <c r="BO4" s="1">
-        <v>21.642729</v>
+        <v>21.642728999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1997.380000</v>
+        <v>1997.38</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1800.740000</v>
+        <v>-1800.74</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
         <v>77925.017731</v>
       </c>
       <c r="BT4" s="1">
-        <v>21.645838</v>
+        <v>21.645838000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>2386.490000</v>
+        <v>2386.4899999999998</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2665.470000</v>
+        <v>-2665.47</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>77936.142005</v>
+        <v>77936.142005000002</v>
       </c>
       <c r="BY4" s="1">
-        <v>21.648928</v>
+        <v>21.648928000000002</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2869.340000</v>
+        <v>2869.34</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3610.370000</v>
+        <v>-3610.37</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>77947.242470</v>
+        <v>77947.242469999997</v>
       </c>
       <c r="CD4" s="1">
-        <v>21.652012</v>
+        <v>21.652011999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>4275.640000</v>
+        <v>4275.6400000000003</v>
       </c>
       <c r="CF4" s="1">
-        <v>-5854.240000</v>
+        <v>-5854.24</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>77776.064171</v>
+        <v>77776.064171000005</v>
       </c>
       <c r="B5" s="1">
-        <v>21.604462</v>
+        <v>21.604462000000002</v>
       </c>
       <c r="C5" s="1">
-        <v>1247.920000</v>
+        <v>1247.92</v>
       </c>
       <c r="D5" s="1">
-        <v>-303.962000</v>
+        <v>-303.96199999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>77786.501024</v>
+        <v>77786.501023999997</v>
       </c>
       <c r="G5" s="1">
-        <v>21.607361</v>
+        <v>21.607361000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>1272.830000</v>
+        <v>1272.83</v>
       </c>
       <c r="I5" s="1">
-        <v>-263.900000</v>
+        <v>-263.89999999999998</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>77797.022158</v>
+        <v>77797.022158000007</v>
       </c>
       <c r="L5" s="1">
         <v>21.610284</v>
       </c>
       <c r="M5" s="1">
-        <v>1310.030000</v>
+        <v>1310.03</v>
       </c>
       <c r="N5" s="1">
-        <v>-203.977000</v>
+        <v>-203.977</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>77807.507551</v>
+        <v>77807.507551000002</v>
       </c>
       <c r="Q5" s="1">
         <v>21.613197</v>
       </c>
       <c r="R5" s="1">
-        <v>1322.640000</v>
+        <v>1322.64</v>
       </c>
       <c r="S5" s="1">
-        <v>-186.099000</v>
+        <v>-186.09899999999999</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>77818.095332</v>
+        <v>77818.095331999997</v>
       </c>
       <c r="V5" s="1">
-        <v>21.616138</v>
+        <v>21.616137999999999</v>
       </c>
       <c r="W5" s="1">
-        <v>1336.480000</v>
+        <v>1336.48</v>
       </c>
       <c r="X5" s="1">
-        <v>-172.830000</v>
+        <v>-172.83</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>77828.539907</v>
+        <v>77828.539906999998</v>
       </c>
       <c r="AA5" s="1">
-        <v>21.619039</v>
+        <v>21.619039000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>1354.640000</v>
+        <v>1354.64</v>
       </c>
       <c r="AC5" s="1">
-        <v>-170.777000</v>
+        <v>-170.77699999999999</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
         <v>77839.110149</v>
       </c>
       <c r="AF5" s="1">
-        <v>21.621975</v>
+        <v>21.621974999999999</v>
       </c>
       <c r="AG5" s="1">
-        <v>1368.080000</v>
+        <v>1368.08</v>
       </c>
       <c r="AH5" s="1">
-        <v>-180.123000</v>
+        <v>-180.12299999999999</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>77849.554407</v>
+        <v>77849.554407000003</v>
       </c>
       <c r="AK5" s="1">
         <v>21.624876</v>
       </c>
       <c r="AL5" s="1">
-        <v>1389.700000</v>
+        <v>1389.7</v>
       </c>
       <c r="AM5" s="1">
-        <v>-210.059000</v>
+        <v>-210.059</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>77860.178713</v>
+        <v>77860.178713000001</v>
       </c>
       <c r="AP5" s="1">
         <v>21.627827</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1412.120000</v>
+        <v>1412.12</v>
       </c>
       <c r="AR5" s="1">
-        <v>-253.374000</v>
+        <v>-253.374</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>77870.939915</v>
+        <v>77870.939914999995</v>
       </c>
       <c r="AU5" s="1">
         <v>21.630817</v>
       </c>
       <c r="AV5" s="1">
-        <v>1437.530000</v>
+        <v>1437.53</v>
       </c>
       <c r="AW5" s="1">
-        <v>-312.623000</v>
+        <v>-312.62299999999999</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>77881.774029</v>
+        <v>77881.774028999993</v>
       </c>
       <c r="AZ5" s="1">
-        <v>21.633826</v>
+        <v>21.633825999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>1457.340000</v>
+        <v>1457.34</v>
       </c>
       <c r="BB5" s="1">
-        <v>-363.947000</v>
+        <v>-363.947</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>77892.302608</v>
+        <v>77892.302607999998</v>
       </c>
       <c r="BE5" s="1">
         <v>21.636751</v>
       </c>
       <c r="BF5" s="1">
-        <v>1544.290000</v>
+        <v>1544.29</v>
       </c>
       <c r="BG5" s="1">
-        <v>-608.482000</v>
+        <v>-608.48199999999997</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>77903.014705</v>
+        <v>77903.014704999994</v>
       </c>
       <c r="BJ5" s="1">
         <v>21.639726</v>
       </c>
       <c r="BK5" s="1">
-        <v>1700.520000</v>
+        <v>1700.52</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1045.860000</v>
+        <v>-1045.8599999999999</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>77914.209908</v>
+        <v>77914.209908000004</v>
       </c>
       <c r="BO5" s="1">
-        <v>21.642836</v>
+        <v>21.642835999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1997.350000</v>
+        <v>1997.35</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1800.730000</v>
+        <v>-1800.73</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>77925.435859</v>
+        <v>77925.435859000005</v>
       </c>
       <c r="BT5" s="1">
         <v>21.645954</v>
       </c>
       <c r="BU5" s="1">
-        <v>2385.990000</v>
+        <v>2385.9899999999998</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2665.660000</v>
+        <v>-2665.66</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>77936.579509</v>
+        <v>77936.579509000003</v>
       </c>
       <c r="BY5" s="1">
-        <v>21.649050</v>
+        <v>21.649049999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2869.360000</v>
+        <v>2869.36</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3609.710000</v>
+        <v>-3609.71</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>77947.782646</v>
+        <v>77947.782646000007</v>
       </c>
       <c r="CD5" s="1">
-        <v>21.652162</v>
+        <v>21.652162000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>4265.270000</v>
+        <v>4265.2700000000004</v>
       </c>
       <c r="CF5" s="1">
-        <v>-5873.580000</v>
+        <v>-5873.58</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>77776.406904</v>
+        <v>77776.406904000003</v>
       </c>
       <c r="B6" s="1">
         <v>21.604557</v>
       </c>
       <c r="C6" s="1">
-        <v>1247.790000</v>
+        <v>1247.79</v>
       </c>
       <c r="D6" s="1">
-        <v>-304.011000</v>
+        <v>-304.01100000000002</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>77787.170586</v>
+        <v>77787.170585999993</v>
       </c>
       <c r="G6" s="1">
         <v>21.607547</v>
       </c>
       <c r="H6" s="1">
-        <v>1273.570000</v>
+        <v>1273.57</v>
       </c>
       <c r="I6" s="1">
-        <v>-263.817000</v>
+        <v>-263.81700000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>77797.690732</v>
+        <v>77797.690732000003</v>
       </c>
       <c r="L6" s="1">
-        <v>21.610470</v>
+        <v>21.610469999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>1310.110000</v>
+        <v>1310.1099999999999</v>
       </c>
       <c r="N6" s="1">
-        <v>-203.561000</v>
+        <v>-203.56100000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>77807.889470</v>
+        <v>77807.889469999995</v>
       </c>
       <c r="Q6" s="1">
-        <v>21.613303</v>
+        <v>21.613302999999998</v>
       </c>
       <c r="R6" s="1">
-        <v>1322.560000</v>
+        <v>1322.56</v>
       </c>
       <c r="S6" s="1">
-        <v>-186.026000</v>
+        <v>-186.02600000000001</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>77818.444336</v>
@@ -1569,467 +1985,467 @@
         <v>21.616235</v>
       </c>
       <c r="W6" s="1">
-        <v>1336.470000</v>
+        <v>1336.47</v>
       </c>
       <c r="X6" s="1">
-        <v>-172.765000</v>
+        <v>-172.76499999999999</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>77828.883635</v>
+        <v>77828.883635000006</v>
       </c>
       <c r="AA6" s="1">
-        <v>21.619134</v>
+        <v>21.619133999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>1354.670000</v>
+        <v>1354.67</v>
       </c>
       <c r="AC6" s="1">
-        <v>-170.650000</v>
+        <v>-170.65</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>77839.451893</v>
+        <v>77839.451893000005</v>
       </c>
       <c r="AF6" s="1">
-        <v>21.622070</v>
+        <v>21.622070000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>1368.220000</v>
+        <v>1368.22</v>
       </c>
       <c r="AH6" s="1">
-        <v>-180.441000</v>
+        <v>-180.441</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>77849.913015</v>
+        <v>77849.913014999998</v>
       </c>
       <c r="AK6" s="1">
         <v>21.624976</v>
       </c>
       <c r="AL6" s="1">
-        <v>1389.710000</v>
+        <v>1389.71</v>
       </c>
       <c r="AM6" s="1">
-        <v>-210.027000</v>
+        <v>-210.02699999999999</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>77860.592873</v>
+        <v>77860.592873000001</v>
       </c>
       <c r="AP6" s="1">
-        <v>21.627942</v>
+        <v>21.627942000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1412.140000</v>
+        <v>1412.14</v>
       </c>
       <c r="AR6" s="1">
-        <v>-253.401000</v>
+        <v>-253.40100000000001</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>77871.254876</v>
+        <v>77871.254876000006</v>
       </c>
       <c r="AU6" s="1">
-        <v>21.630904</v>
+        <v>21.630904000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>1437.480000</v>
+        <v>1437.48</v>
       </c>
       <c r="AW6" s="1">
-        <v>-312.604000</v>
+        <v>-312.60399999999998</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>77882.071132</v>
+        <v>77882.071131999997</v>
       </c>
       <c r="AZ6" s="1">
-        <v>21.633909</v>
+        <v>21.633908999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1457.320000</v>
+        <v>1457.32</v>
       </c>
       <c r="BB6" s="1">
-        <v>-363.997000</v>
+        <v>-363.99700000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>77892.664190</v>
+        <v>77892.664189999996</v>
       </c>
       <c r="BE6" s="1">
         <v>21.636851</v>
       </c>
       <c r="BF6" s="1">
-        <v>1544.320000</v>
+        <v>1544.32</v>
       </c>
       <c r="BG6" s="1">
-        <v>-608.522000</v>
+        <v>-608.52200000000005</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>77903.389216</v>
+        <v>77903.389215999996</v>
       </c>
       <c r="BJ6" s="1">
-        <v>21.639830</v>
+        <v>21.63983</v>
       </c>
       <c r="BK6" s="1">
-        <v>1700.540000</v>
+        <v>1700.54</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1045.820000</v>
+        <v>-1045.82</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>77914.631036</v>
+        <v>77914.631036000006</v>
       </c>
       <c r="BO6" s="1">
-        <v>21.642953</v>
+        <v>21.642952999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1997.280000</v>
+        <v>1997.28</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1800.750000</v>
+        <v>-1800.75</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>77925.860930</v>
+        <v>77925.860929999995</v>
       </c>
       <c r="BT6" s="1">
         <v>21.646072</v>
       </c>
       <c r="BU6" s="1">
-        <v>2385.460000</v>
+        <v>2385.46</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2665.620000</v>
+        <v>-2665.62</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>77936.986196</v>
+        <v>77936.986195999998</v>
       </c>
       <c r="BY6" s="1">
-        <v>21.649163</v>
+        <v>21.649163000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2868.860000</v>
+        <v>2868.86</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3609.630000</v>
+        <v>-3609.63</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>77948.323284</v>
+        <v>77948.323283999998</v>
       </c>
       <c r="CD6" s="1">
-        <v>21.652312</v>
+        <v>21.652311999999998</v>
       </c>
       <c r="CE6" s="1">
-        <v>4284.300000</v>
+        <v>4284.3</v>
       </c>
       <c r="CF6" s="1">
-        <v>-5859.820000</v>
+        <v>-5859.82</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>77777.065095</v>
+        <v>77777.065094999998</v>
       </c>
       <c r="B7" s="1">
-        <v>21.604740</v>
+        <v>21.60474</v>
       </c>
       <c r="C7" s="1">
-        <v>1247.710000</v>
+        <v>1247.71</v>
       </c>
       <c r="D7" s="1">
-        <v>-303.902000</v>
+        <v>-303.90199999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>77787.533194</v>
+        <v>77787.533194000003</v>
       </c>
       <c r="G7" s="1">
-        <v>21.607648</v>
+        <v>21.607648000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>1273.000000</v>
+        <v>1273</v>
       </c>
       <c r="I7" s="1">
-        <v>-263.352000</v>
+        <v>-263.35199999999998</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>77798.062731</v>
+        <v>77798.062730999998</v>
       </c>
       <c r="L7" s="1">
-        <v>21.610573</v>
+        <v>21.610572999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>1310.000000</v>
+        <v>1310</v>
       </c>
       <c r="N7" s="1">
-        <v>-203.821000</v>
+        <v>-203.821</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>77808.239152</v>
+        <v>77808.239151999995</v>
       </c>
       <c r="Q7" s="1">
-        <v>21.613400</v>
+        <v>21.613399999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>1322.510000</v>
+        <v>1322.51</v>
       </c>
       <c r="S7" s="1">
-        <v>-185.976000</v>
+        <v>-185.976</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>77818.788560</v>
+        <v>77818.788560000001</v>
       </c>
       <c r="V7" s="1">
-        <v>21.616330</v>
+        <v>21.616330000000001</v>
       </c>
       <c r="W7" s="1">
-        <v>1336.490000</v>
+        <v>1336.49</v>
       </c>
       <c r="X7" s="1">
-        <v>-172.812000</v>
+        <v>-172.81200000000001</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>77829.236291</v>
+        <v>77829.236290999994</v>
       </c>
       <c r="AA7" s="1">
         <v>21.619232</v>
       </c>
       <c r="AB7" s="1">
-        <v>1354.740000</v>
+        <v>1354.74</v>
       </c>
       <c r="AC7" s="1">
-        <v>-170.660000</v>
+        <v>-170.66</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>77839.876582</v>
+        <v>77839.876581999997</v>
       </c>
       <c r="AF7" s="1">
-        <v>21.622188</v>
+        <v>21.622188000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>1368.290000</v>
+        <v>1368.29</v>
       </c>
       <c r="AH7" s="1">
-        <v>-180.558000</v>
+        <v>-180.55799999999999</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>77850.424390</v>
+        <v>77850.42439</v>
       </c>
       <c r="AK7" s="1">
-        <v>21.625118</v>
+        <v>21.625118000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>1389.730000</v>
+        <v>1389.73</v>
       </c>
       <c r="AM7" s="1">
-        <v>-210.079000</v>
+        <v>-210.07900000000001</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>77860.898904</v>
+        <v>77860.898904000001</v>
       </c>
       <c r="AP7" s="1">
-        <v>21.628027</v>
+        <v>21.628026999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1412.190000</v>
+        <v>1412.19</v>
       </c>
       <c r="AR7" s="1">
-        <v>-253.389000</v>
+        <v>-253.38900000000001</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>77871.617482</v>
+        <v>77871.617482000001</v>
       </c>
       <c r="AU7" s="1">
-        <v>21.631005</v>
+        <v>21.631004999999998</v>
       </c>
       <c r="AV7" s="1">
-        <v>1437.490000</v>
+        <v>1437.49</v>
       </c>
       <c r="AW7" s="1">
-        <v>-312.586000</v>
+        <v>-312.58600000000001</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>77882.434209</v>
+        <v>77882.434208999999</v>
       </c>
       <c r="AZ7" s="1">
-        <v>21.634010</v>
+        <v>21.63401</v>
       </c>
       <c r="BA7" s="1">
-        <v>1457.350000</v>
+        <v>1457.35</v>
       </c>
       <c r="BB7" s="1">
-        <v>-363.990000</v>
+        <v>-363.99</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>77893.021986</v>
+        <v>77893.021986000007</v>
       </c>
       <c r="BE7" s="1">
         <v>21.636951</v>
       </c>
       <c r="BF7" s="1">
-        <v>1544.290000</v>
+        <v>1544.29</v>
       </c>
       <c r="BG7" s="1">
-        <v>-608.558000</v>
+        <v>-608.55799999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>77904.163439</v>
+        <v>77904.163438999996</v>
       </c>
       <c r="BJ7" s="1">
-        <v>21.640045</v>
+        <v>21.640045000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1700.520000</v>
+        <v>1700.52</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1045.890000</v>
+        <v>-1045.8900000000001</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
         <v>77915.449408</v>
       </c>
       <c r="BO7" s="1">
-        <v>21.643180</v>
+        <v>21.643180000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1997.250000</v>
+        <v>1997.25</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1800.680000</v>
+        <v>-1800.68</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
         <v>77926.266162</v>
       </c>
       <c r="BT7" s="1">
-        <v>21.646185</v>
+        <v>21.646184999999999</v>
       </c>
       <c r="BU7" s="1">
-        <v>2385.010000</v>
+        <v>2385.0100000000002</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2665.640000</v>
+        <v>-2665.64</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>77937.413251</v>
+        <v>77937.413251000005</v>
       </c>
       <c r="BY7" s="1">
-        <v>21.649281</v>
+        <v>21.649280999999998</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2869.300000</v>
+        <v>2869.3</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3610.540000</v>
+        <v>-3610.54</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>77948.863893</v>
+        <v>77948.863893000002</v>
       </c>
       <c r="CD7" s="1">
         <v>21.652462</v>
       </c>
       <c r="CE7" s="1">
-        <v>4265.060000</v>
+        <v>4265.0600000000004</v>
       </c>
       <c r="CF7" s="1">
-        <v>-5863.170000</v>
+        <v>-5863.17</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>77777.429160</v>
+        <v>77777.42916</v>
       </c>
       <c r="B8" s="1">
         <v>21.604841</v>
       </c>
       <c r="C8" s="1">
-        <v>1247.620000</v>
+        <v>1247.6199999999999</v>
       </c>
       <c r="D8" s="1">
-        <v>-303.728000</v>
+        <v>-303.72800000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>77787.877385</v>
@@ -2038,193 +2454,193 @@
         <v>21.607744</v>
       </c>
       <c r="H8" s="1">
-        <v>1273.540000</v>
+        <v>1273.54</v>
       </c>
       <c r="I8" s="1">
-        <v>-263.619000</v>
+        <v>-263.61900000000003</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>77798.409435</v>
+        <v>77798.409434999994</v>
       </c>
       <c r="L8" s="1">
-        <v>21.610669</v>
+        <v>21.610669000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>1310.070000</v>
+        <v>1310.07</v>
       </c>
       <c r="N8" s="1">
-        <v>-203.715000</v>
+        <v>-203.715</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>77808.587341</v>
+        <v>77808.587341000006</v>
       </c>
       <c r="Q8" s="1">
-        <v>21.613496</v>
+        <v>21.613496000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>1322.590000</v>
+        <v>1322.59</v>
       </c>
       <c r="S8" s="1">
-        <v>-185.988000</v>
+        <v>-185.988</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>77819.222063</v>
+        <v>77819.222062999994</v>
       </c>
       <c r="V8" s="1">
-        <v>21.616451</v>
+        <v>21.616451000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>1336.450000</v>
+        <v>1336.45</v>
       </c>
       <c r="X8" s="1">
-        <v>-172.723000</v>
+        <v>-172.72300000000001</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>77829.664834</v>
+        <v>77829.664833999996</v>
       </c>
       <c r="AA8" s="1">
-        <v>21.619351</v>
+        <v>21.619351000000002</v>
       </c>
       <c r="AB8" s="1">
-        <v>1354.560000</v>
+        <v>1354.56</v>
       </c>
       <c r="AC8" s="1">
-        <v>-170.721000</v>
+        <v>-170.721</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>77840.139349</v>
+        <v>77840.139349000005</v>
       </c>
       <c r="AF8" s="1">
-        <v>21.622261</v>
+        <v>21.622261000000002</v>
       </c>
       <c r="AG8" s="1">
-        <v>1368.340000</v>
+        <v>1368.34</v>
       </c>
       <c r="AH8" s="1">
-        <v>-180.269000</v>
+        <v>-180.26900000000001</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>77850.639194</v>
+        <v>77850.639194000003</v>
       </c>
       <c r="AK8" s="1">
-        <v>21.625178</v>
+        <v>21.625177999999998</v>
       </c>
       <c r="AL8" s="1">
-        <v>1389.700000</v>
+        <v>1389.7</v>
       </c>
       <c r="AM8" s="1">
-        <v>-210.059000</v>
+        <v>-210.059</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
         <v>77861.257522</v>
       </c>
       <c r="AP8" s="1">
-        <v>21.628127</v>
+        <v>21.628126999999999</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1412.140000</v>
+        <v>1412.14</v>
       </c>
       <c r="AR8" s="1">
-        <v>-253.389000</v>
+        <v>-253.38900000000001</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>77871.984489</v>
+        <v>77871.984488999995</v>
       </c>
       <c r="AU8" s="1">
         <v>21.631107</v>
       </c>
       <c r="AV8" s="1">
-        <v>1437.490000</v>
+        <v>1437.49</v>
       </c>
       <c r="AW8" s="1">
-        <v>-312.574000</v>
+        <v>-312.57400000000001</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>77882.793803</v>
+        <v>77882.793802999993</v>
       </c>
       <c r="AZ8" s="1">
-        <v>21.634109</v>
+        <v>21.634108999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>1457.370000</v>
+        <v>1457.37</v>
       </c>
       <c r="BB8" s="1">
-        <v>-363.950000</v>
+        <v>-363.95</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
         <v>77893.743982</v>
       </c>
       <c r="BE8" s="1">
-        <v>21.637151</v>
+        <v>21.637150999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1544.330000</v>
+        <v>1544.33</v>
       </c>
       <c r="BG8" s="1">
-        <v>-608.538000</v>
+        <v>-608.53800000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>77904.538911</v>
+        <v>77904.538910999996</v>
       </c>
       <c r="BJ8" s="1">
-        <v>21.640150</v>
+        <v>21.640149999999998</v>
       </c>
       <c r="BK8" s="1">
-        <v>1700.530000</v>
+        <v>1700.53</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1045.870000</v>
+        <v>-1045.8699999999999</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>77915.868032</v>
+        <v>77915.868031999998</v>
       </c>
       <c r="BO8" s="1">
         <v>21.643297</v>
       </c>
       <c r="BP8" s="1">
-        <v>1997.100000</v>
+        <v>1997.1</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1800.620000</v>
+        <v>-1800.62</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>77926.705617</v>
@@ -2233,1934 +2649,1934 @@
         <v>21.646307</v>
       </c>
       <c r="BU8" s="1">
-        <v>2384.680000</v>
+        <v>2384.6799999999998</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2665.900000</v>
+        <v>-2665.9</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>77938.148855</v>
+        <v>77938.148855000007</v>
       </c>
       <c r="BY8" s="1">
         <v>21.649486</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2868.810000</v>
+        <v>2868.81</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3609.670000</v>
+        <v>-3609.67</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>77949.739332</v>
+        <v>77949.739331999997</v>
       </c>
       <c r="CD8" s="1">
-        <v>21.652705</v>
+        <v>21.652705000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>4278.020000</v>
+        <v>4278.0200000000004</v>
       </c>
       <c r="CF8" s="1">
-        <v>-5857.820000</v>
+        <v>-5857.82</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>77777.772918</v>
+        <v>77777.772918000002</v>
       </c>
       <c r="B9" s="1">
         <v>21.604937</v>
       </c>
       <c r="C9" s="1">
-        <v>1248.000000</v>
+        <v>1248</v>
       </c>
       <c r="D9" s="1">
-        <v>-303.784000</v>
+        <v>-303.78399999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>77788.221146</v>
+        <v>77788.221145999996</v>
       </c>
       <c r="G9" s="1">
-        <v>21.607839</v>
+        <v>21.607838999999998</v>
       </c>
       <c r="H9" s="1">
-        <v>1273.450000</v>
+        <v>1273.45</v>
       </c>
       <c r="I9" s="1">
-        <v>-263.921000</v>
+        <v>-263.92099999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>77798.758162</v>
+        <v>77798.758161999998</v>
       </c>
       <c r="L9" s="1">
-        <v>21.610766</v>
+        <v>21.610766000000002</v>
       </c>
       <c r="M9" s="1">
-        <v>1310.020000</v>
+        <v>1310.02</v>
       </c>
       <c r="N9" s="1">
-        <v>-203.629000</v>
+        <v>-203.62899999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>77809.007949</v>
+        <v>77809.007949000006</v>
       </c>
       <c r="Q9" s="1">
-        <v>21.613613</v>
+        <v>21.613613000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>1322.650000</v>
+        <v>1322.65</v>
       </c>
       <c r="S9" s="1">
-        <v>-185.970000</v>
+        <v>-185.97</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>77819.487449</v>
+        <v>77819.487448999993</v>
       </c>
       <c r="V9" s="1">
-        <v>21.616524</v>
+        <v>21.616523999999998</v>
       </c>
       <c r="W9" s="1">
-        <v>1336.460000</v>
+        <v>1336.46</v>
       </c>
       <c r="X9" s="1">
-        <v>-172.866000</v>
+        <v>-172.86600000000001</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>77829.937137</v>
+        <v>77829.937137000001</v>
       </c>
       <c r="AA9" s="1">
-        <v>21.619427</v>
+        <v>21.619427000000002</v>
       </c>
       <c r="AB9" s="1">
-        <v>1354.650000</v>
+        <v>1354.65</v>
       </c>
       <c r="AC9" s="1">
-        <v>-170.642000</v>
+        <v>-170.642</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>77840.483608</v>
+        <v>77840.483607999995</v>
       </c>
       <c r="AF9" s="1">
-        <v>21.622357</v>
+        <v>21.622357000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>1368.310000</v>
+        <v>1368.31</v>
       </c>
       <c r="AH9" s="1">
-        <v>-180.556000</v>
+        <v>-180.55600000000001</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
         <v>77850.968534</v>
       </c>
       <c r="AK9" s="1">
-        <v>21.625269</v>
+        <v>21.625268999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>1389.720000</v>
+        <v>1389.72</v>
       </c>
       <c r="AM9" s="1">
-        <v>-210.044000</v>
+        <v>-210.04400000000001</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>77861.616121</v>
+        <v>77861.616120999999</v>
       </c>
       <c r="AP9" s="1">
-        <v>21.628227</v>
+        <v>21.628226999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1412.160000</v>
+        <v>1412.16</v>
       </c>
       <c r="AR9" s="1">
-        <v>-253.376000</v>
+        <v>-253.376</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>77872.712153</v>
       </c>
       <c r="AU9" s="1">
-        <v>21.631309</v>
+        <v>21.631309000000002</v>
       </c>
       <c r="AV9" s="1">
-        <v>1437.510000</v>
+        <v>1437.51</v>
       </c>
       <c r="AW9" s="1">
-        <v>-312.603000</v>
+        <v>-312.60300000000001</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>77883.689375</v>
+        <v>77883.689375000002</v>
       </c>
       <c r="AZ9" s="1">
-        <v>21.634358</v>
+        <v>21.634357999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>1457.340000</v>
+        <v>1457.34</v>
       </c>
       <c r="BB9" s="1">
-        <v>-363.955000</v>
+        <v>-363.95499999999998</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>77894.106588</v>
+        <v>77894.106587999995</v>
       </c>
       <c r="BE9" s="1">
         <v>21.637252</v>
       </c>
       <c r="BF9" s="1">
-        <v>1544.310000</v>
+        <v>1544.31</v>
       </c>
       <c r="BG9" s="1">
-        <v>-608.497000</v>
+        <v>-608.49699999999996</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>77904.914878</v>
+        <v>77904.914877999996</v>
       </c>
       <c r="BJ9" s="1">
-        <v>21.640254</v>
+        <v>21.640253999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1700.490000</v>
+        <v>1700.49</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1045.870000</v>
+        <v>-1045.8699999999999</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>77916.261857</v>
+        <v>77916.261857000005</v>
       </c>
       <c r="BO9" s="1">
-        <v>21.643406</v>
+        <v>21.643405999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1996.970000</v>
+        <v>1996.97</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1800.560000</v>
+        <v>-1800.56</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>77927.439698</v>
+        <v>77927.439698000002</v>
       </c>
       <c r="BT9" s="1">
         <v>21.646511</v>
       </c>
       <c r="BU9" s="1">
-        <v>2384.320000</v>
+        <v>2384.3200000000002</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2666.220000</v>
+        <v>-2666.22</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>77938.275794</v>
+        <v>77938.275794000001</v>
       </c>
       <c r="BY9" s="1">
         <v>21.649521</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2868.160000</v>
+        <v>2868.16</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3609.770000</v>
+        <v>-3609.77</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>77949.943187</v>
+        <v>77949.943186999997</v>
       </c>
       <c r="CD9" s="1">
-        <v>21.652762</v>
+        <v>21.652761999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>4278.670000</v>
+        <v>4278.67</v>
       </c>
       <c r="CF9" s="1">
-        <v>-5855.730000</v>
+        <v>-5855.73</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
         <v>77778.114642</v>
       </c>
       <c r="B10" s="1">
-        <v>21.605032</v>
+        <v>21.605032000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>1247.880000</v>
+        <v>1247.8800000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>-304.082000</v>
+        <v>-304.08199999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>77788.641256</v>
+        <v>77788.641256000003</v>
       </c>
       <c r="G10" s="1">
-        <v>21.607956</v>
+        <v>21.607956000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>1272.930000</v>
+        <v>1272.93</v>
       </c>
       <c r="I10" s="1">
-        <v>-264.381000</v>
+        <v>-264.38099999999997</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>77799.187162</v>
+        <v>77799.187162000002</v>
       </c>
       <c r="L10" s="1">
         <v>21.610885</v>
       </c>
       <c r="M10" s="1">
-        <v>1310.040000</v>
+        <v>1310.04</v>
       </c>
       <c r="N10" s="1">
-        <v>-203.515000</v>
+        <v>-203.51499999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>77809.291693</v>
+        <v>77809.291693000006</v>
       </c>
       <c r="Q10" s="1">
         <v>21.613692</v>
       </c>
       <c r="R10" s="1">
-        <v>1322.680000</v>
+        <v>1322.68</v>
       </c>
       <c r="S10" s="1">
-        <v>-186.009000</v>
+        <v>-186.00899999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>77819.828493</v>
+        <v>77819.828492999994</v>
       </c>
       <c r="V10" s="1">
         <v>21.616619</v>
       </c>
       <c r="W10" s="1">
-        <v>1336.580000</v>
+        <v>1336.58</v>
       </c>
       <c r="X10" s="1">
-        <v>-172.634000</v>
+        <v>-172.63399999999999</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>77830.286354</v>
+        <v>77830.286353999996</v>
       </c>
       <c r="AA10" s="1">
-        <v>21.619524</v>
+        <v>21.619523999999998</v>
       </c>
       <c r="AB10" s="1">
-        <v>1354.550000</v>
+        <v>1354.55</v>
       </c>
       <c r="AC10" s="1">
-        <v>-170.794000</v>
+        <v>-170.79400000000001</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>77840.827796</v>
+        <v>77840.827795999998</v>
       </c>
       <c r="AF10" s="1">
-        <v>21.622452</v>
+        <v>21.622451999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>1368.170000</v>
+        <v>1368.17</v>
       </c>
       <c r="AH10" s="1">
-        <v>-180.632000</v>
+        <v>-180.63200000000001</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>77851.663893</v>
+        <v>77851.663893000004</v>
       </c>
       <c r="AK10" s="1">
-        <v>21.625462</v>
+        <v>21.625461999999999</v>
       </c>
       <c r="AL10" s="1">
-        <v>1389.720000</v>
+        <v>1389.72</v>
       </c>
       <c r="AM10" s="1">
-        <v>-210.038000</v>
+        <v>-210.03800000000001</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>77862.337303</v>
+        <v>77862.337302999993</v>
       </c>
       <c r="AP10" s="1">
-        <v>21.628427</v>
+        <v>21.628426999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1412.160000</v>
+        <v>1412.16</v>
       </c>
       <c r="AR10" s="1">
-        <v>-253.370000</v>
+        <v>-253.37</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>77873.102472</v>
+        <v>77873.102471999999</v>
       </c>
       <c r="AU10" s="1">
-        <v>21.631417</v>
+        <v>21.631416999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>1437.540000</v>
+        <v>1437.54</v>
       </c>
       <c r="AW10" s="1">
-        <v>-312.598000</v>
+        <v>-312.59800000000001</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>77883.868634</v>
+        <v>77883.868633999999</v>
       </c>
       <c r="AZ10" s="1">
-        <v>21.634408</v>
+        <v>21.634408000000001</v>
       </c>
       <c r="BA10" s="1">
-        <v>1457.360000</v>
+        <v>1457.36</v>
       </c>
       <c r="BB10" s="1">
-        <v>-363.950000</v>
+        <v>-363.95</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>77894.468636</v>
+        <v>77894.468636000005</v>
       </c>
       <c r="BE10" s="1">
         <v>21.637352</v>
       </c>
       <c r="BF10" s="1">
-        <v>1544.270000</v>
+        <v>1544.27</v>
       </c>
       <c r="BG10" s="1">
-        <v>-608.557000</v>
+        <v>-608.55700000000002</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>77905.628152</v>
+        <v>77905.628152000005</v>
       </c>
       <c r="BJ10" s="1">
         <v>21.640452</v>
       </c>
       <c r="BK10" s="1">
-        <v>1700.500000</v>
+        <v>1700.5</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1045.830000</v>
+        <v>-1045.83</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>77917.046068</v>
+        <v>77917.046067999996</v>
       </c>
       <c r="BO10" s="1">
-        <v>21.643624</v>
+        <v>21.643623999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1997.290000</v>
+        <v>1997.29</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1800.570000</v>
+        <v>-1800.57</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>77927.578610</v>
+        <v>77927.578609999997</v>
       </c>
       <c r="BT10" s="1">
-        <v>21.646550</v>
+        <v>21.646550000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>2384.120000</v>
+        <v>2384.12</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2666.440000</v>
+        <v>-2666.44</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>77938.697393</v>
+        <v>77938.697392999995</v>
       </c>
       <c r="BY10" s="1">
-        <v>21.649638</v>
+        <v>21.649637999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2867.810000</v>
+        <v>2867.81</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3609.900000</v>
+        <v>-3609.9</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
         <v>77950.461507</v>
       </c>
       <c r="CD10" s="1">
-        <v>21.652906</v>
+        <v>21.652906000000002</v>
       </c>
       <c r="CE10" s="1">
-        <v>4261.650000</v>
+        <v>4261.6499999999996</v>
       </c>
       <c r="CF10" s="1">
-        <v>-5861.600000</v>
+        <v>-5861.6</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>77778.534245</v>
+        <v>77778.534245000003</v>
       </c>
       <c r="B11" s="1">
         <v>21.605148</v>
       </c>
       <c r="C11" s="1">
-        <v>1247.600000</v>
+        <v>1247.5999999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>-303.940000</v>
+        <v>-303.94</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>77788.930888</v>
+        <v>77788.930888000003</v>
       </c>
       <c r="G11" s="1">
-        <v>21.608036</v>
+        <v>21.608035999999998</v>
       </c>
       <c r="H11" s="1">
-        <v>1272.610000</v>
+        <v>1272.6099999999999</v>
       </c>
       <c r="I11" s="1">
-        <v>-264.220000</v>
+        <v>-264.22000000000003</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>77799.482283</v>
+        <v>77799.482283000005</v>
       </c>
       <c r="L11" s="1">
-        <v>21.610967</v>
+        <v>21.610966999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>1310.170000</v>
+        <v>1310.17</v>
       </c>
       <c r="N11" s="1">
-        <v>-203.672000</v>
+        <v>-203.672</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>77809.641836</v>
+        <v>77809.641835999995</v>
       </c>
       <c r="Q11" s="1">
-        <v>21.613789</v>
+        <v>21.613789000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>1322.650000</v>
+        <v>1322.65</v>
       </c>
       <c r="S11" s="1">
-        <v>-186.066000</v>
+        <v>-186.066</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>77820.172398</v>
+        <v>77820.172397999995</v>
       </c>
       <c r="V11" s="1">
-        <v>21.616715</v>
+        <v>21.616714999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>1336.440000</v>
+        <v>1336.44</v>
       </c>
       <c r="X11" s="1">
-        <v>-172.865000</v>
+        <v>-172.86500000000001</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>77830.632561</v>
+        <v>77830.632561000006</v>
       </c>
       <c r="AA11" s="1">
-        <v>21.619620</v>
+        <v>21.619620000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>1354.690000</v>
+        <v>1354.69</v>
       </c>
       <c r="AC11" s="1">
-        <v>-170.792000</v>
+        <v>-170.792</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>77841.513762</v>
+        <v>77841.513762000002</v>
       </c>
       <c r="AF11" s="1">
         <v>21.622643</v>
       </c>
       <c r="AG11" s="1">
-        <v>1368.060000</v>
+        <v>1368.06</v>
       </c>
       <c r="AH11" s="1">
-        <v>-180.385000</v>
+        <v>-180.38499999999999</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>77852.014564</v>
+        <v>77852.014563999997</v>
       </c>
       <c r="AK11" s="1">
-        <v>21.625560</v>
+        <v>21.62556</v>
       </c>
       <c r="AL11" s="1">
-        <v>1389.710000</v>
+        <v>1389.71</v>
       </c>
       <c r="AM11" s="1">
-        <v>-210.055000</v>
+        <v>-210.05500000000001</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>77862.725702</v>
+        <v>77862.725701999996</v>
       </c>
       <c r="AP11" s="1">
-        <v>21.628535</v>
+        <v>21.628534999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1412.150000</v>
+        <v>1412.15</v>
       </c>
       <c r="AR11" s="1">
-        <v>-253.393000</v>
+        <v>-253.393</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>77873.469543</v>
+        <v>77873.469542999999</v>
       </c>
       <c r="AU11" s="1">
-        <v>21.631519</v>
+        <v>21.631519000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>1437.500000</v>
+        <v>1437.5</v>
       </c>
       <c r="AW11" s="1">
-        <v>-312.587000</v>
+        <v>-312.58699999999999</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>77884.539474</v>
+        <v>77884.539474000005</v>
       </c>
       <c r="AZ11" s="1">
         <v>21.634594</v>
       </c>
       <c r="BA11" s="1">
-        <v>1457.370000</v>
+        <v>1457.37</v>
       </c>
       <c r="BB11" s="1">
-        <v>-363.964000</v>
+        <v>-363.964</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>77895.147661</v>
+        <v>77895.147660999995</v>
       </c>
       <c r="BE11" s="1">
-        <v>21.637541</v>
+        <v>21.637540999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1544.280000</v>
+        <v>1544.28</v>
       </c>
       <c r="BG11" s="1">
-        <v>-608.501000</v>
+        <v>-608.50099999999998</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>77906.069068</v>
+        <v>77906.069067999997</v>
       </c>
       <c r="BJ11" s="1">
-        <v>21.640575</v>
+        <v>21.640574999999998</v>
       </c>
       <c r="BK11" s="1">
-        <v>1700.500000</v>
+        <v>1700.5</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1045.820000</v>
+        <v>-1045.82</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>77917.496398</v>
+        <v>77917.496398000003</v>
       </c>
       <c r="BO11" s="1">
         <v>21.643749</v>
       </c>
       <c r="BP11" s="1">
-        <v>1997.180000</v>
+        <v>1997.18</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1800.490000</v>
+        <v>-1800.49</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>77927.990785</v>
+        <v>77927.990785000002</v>
       </c>
       <c r="BT11" s="1">
-        <v>21.646664</v>
+        <v>21.646664000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>2383.420000</v>
+        <v>2383.42</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2666.930000</v>
+        <v>-2666.93</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>77939.123953</v>
+        <v>77939.123953000002</v>
       </c>
       <c r="BY11" s="1">
-        <v>21.649757</v>
+        <v>21.649757000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2868.500000</v>
+        <v>2868.5</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3610.330000</v>
+        <v>-3610.33</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>77951.002675</v>
+        <v>77951.002674999996</v>
       </c>
       <c r="CD11" s="1">
-        <v>21.653056</v>
+        <v>21.653055999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>4265.910000</v>
+        <v>4265.91</v>
       </c>
       <c r="CF11" s="1">
-        <v>-5855.860000</v>
+        <v>-5855.86</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>77778.812501</v>
+        <v>77778.812500999993</v>
       </c>
       <c r="B12" s="1">
-        <v>21.605226</v>
+        <v>21.605225999999998</v>
       </c>
       <c r="C12" s="1">
-        <v>1248.090000</v>
+        <v>1248.0899999999999</v>
       </c>
       <c r="D12" s="1">
-        <v>-304.006000</v>
+        <v>-304.00599999999997</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>77789.278615</v>
+        <v>77789.278615000003</v>
       </c>
       <c r="G12" s="1">
-        <v>21.608133</v>
+        <v>21.608132999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>1272.750000</v>
+        <v>1272.75</v>
       </c>
       <c r="I12" s="1">
-        <v>-264.704000</v>
+        <v>-264.70400000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>77799.819067</v>
+        <v>77799.819067000004</v>
       </c>
       <c r="L12" s="1">
-        <v>21.611061</v>
+        <v>21.611060999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>1309.970000</v>
+        <v>1309.97</v>
       </c>
       <c r="N12" s="1">
-        <v>-203.420000</v>
+        <v>-203.42</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>77809.988075</v>
+        <v>77809.988075000001</v>
       </c>
       <c r="Q12" s="1">
-        <v>21.613886</v>
+        <v>21.613886000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>1322.520000</v>
+        <v>1322.52</v>
       </c>
       <c r="S12" s="1">
-        <v>-186.076000</v>
+        <v>-186.07599999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>77820.859853</v>
+        <v>77820.859853000002</v>
       </c>
       <c r="V12" s="1">
         <v>21.616906</v>
       </c>
       <c r="W12" s="1">
-        <v>1336.460000</v>
+        <v>1336.46</v>
       </c>
       <c r="X12" s="1">
-        <v>-172.772000</v>
+        <v>-172.77199999999999</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>77831.331887</v>
+        <v>77831.331886999993</v>
       </c>
       <c r="AA12" s="1">
-        <v>21.619814</v>
+        <v>21.619814000000002</v>
       </c>
       <c r="AB12" s="1">
-        <v>1354.560000</v>
+        <v>1354.56</v>
       </c>
       <c r="AC12" s="1">
-        <v>-170.767000</v>
+        <v>-170.767</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>77841.861954</v>
+        <v>77841.861954000007</v>
       </c>
       <c r="AF12" s="1">
-        <v>21.622739</v>
+        <v>21.622738999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>1368.000000</v>
+        <v>1368</v>
       </c>
       <c r="AH12" s="1">
-        <v>-180.434000</v>
+        <v>-180.434</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>77852.364739</v>
+        <v>77852.364738999997</v>
       </c>
       <c r="AK12" s="1">
         <v>21.625657</v>
       </c>
       <c r="AL12" s="1">
-        <v>1389.710000</v>
+        <v>1389.71</v>
       </c>
       <c r="AM12" s="1">
-        <v>-210.045000</v>
+        <v>-210.04499999999999</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>77863.105111</v>
+        <v>77863.105110999997</v>
       </c>
       <c r="AP12" s="1">
-        <v>21.628640</v>
+        <v>21.628640000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1412.150000</v>
+        <v>1412.15</v>
       </c>
       <c r="AR12" s="1">
-        <v>-253.396000</v>
+        <v>-253.39599999999999</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>77874.140316</v>
+        <v>77874.140316000005</v>
       </c>
       <c r="AU12" s="1">
-        <v>21.631706</v>
+        <v>21.631706000000001</v>
       </c>
       <c r="AV12" s="1">
-        <v>1437.520000</v>
+        <v>1437.52</v>
       </c>
       <c r="AW12" s="1">
-        <v>-312.559000</v>
+        <v>-312.55900000000003</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>77884.977193</v>
+        <v>77884.977192999999</v>
       </c>
       <c r="AZ12" s="1">
-        <v>21.634716</v>
+        <v>21.634716000000001</v>
       </c>
       <c r="BA12" s="1">
-        <v>1457.360000</v>
+        <v>1457.36</v>
       </c>
       <c r="BB12" s="1">
-        <v>-363.992000</v>
+        <v>-363.99200000000002</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>77895.575706</v>
+        <v>77895.575706000003</v>
       </c>
       <c r="BE12" s="1">
-        <v>21.637660</v>
+        <v>21.63766</v>
       </c>
       <c r="BF12" s="1">
-        <v>1544.290000</v>
+        <v>1544.29</v>
       </c>
       <c r="BG12" s="1">
-        <v>-608.528000</v>
+        <v>-608.52800000000002</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>77906.469846</v>
+        <v>77906.469846000007</v>
       </c>
       <c r="BJ12" s="1">
-        <v>21.640686</v>
+        <v>21.640685999999999</v>
       </c>
       <c r="BK12" s="1">
-        <v>1700.590000</v>
+        <v>1700.59</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1045.730000</v>
+        <v>-1045.73</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>77917.891214</v>
+        <v>77917.891214000003</v>
       </c>
       <c r="BO12" s="1">
-        <v>21.643859</v>
+        <v>21.643858999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1997.120000</v>
+        <v>1997.12</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1800.520000</v>
+        <v>-1800.52</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>77928.421280</v>
+        <v>77928.421279999995</v>
       </c>
       <c r="BT12" s="1">
         <v>21.646784</v>
       </c>
       <c r="BU12" s="1">
-        <v>2383.940000</v>
+        <v>2383.94</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2667.240000</v>
+        <v>-2667.24</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>77939.542578</v>
+        <v>77939.542577999993</v>
       </c>
       <c r="BY12" s="1">
-        <v>21.649873</v>
+        <v>21.649872999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2868.630000</v>
+        <v>2868.63</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3609.960000</v>
+        <v>-3609.96</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>77951.532865</v>
+        <v>77951.532865000001</v>
       </c>
       <c r="CD12" s="1">
-        <v>21.653204</v>
+        <v>21.653203999999999</v>
       </c>
       <c r="CE12" s="1">
-        <v>4276.330000</v>
+        <v>4276.33</v>
       </c>
       <c r="CF12" s="1">
-        <v>-5853.950000</v>
+        <v>-5853.95</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>77779.156260</v>
+        <v>77779.156260000003</v>
       </c>
       <c r="B13" s="1">
         <v>21.605321</v>
       </c>
       <c r="C13" s="1">
-        <v>1247.970000</v>
+        <v>1247.97</v>
       </c>
       <c r="D13" s="1">
-        <v>-304.024000</v>
+        <v>-304.024</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>77789.623302</v>
+        <v>77789.623302000007</v>
       </c>
       <c r="G13" s="1">
-        <v>21.608229</v>
+        <v>21.608229000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>1273.030000</v>
+        <v>1273.03</v>
       </c>
       <c r="I13" s="1">
-        <v>-263.459000</v>
+        <v>-263.459</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>77800.387022</v>
+        <v>77800.387021999995</v>
       </c>
       <c r="L13" s="1">
-        <v>21.611219</v>
+        <v>21.611218999999998</v>
       </c>
       <c r="M13" s="1">
-        <v>1309.950000</v>
+        <v>1309.95</v>
       </c>
       <c r="N13" s="1">
-        <v>-203.815000</v>
+        <v>-203.815</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>77810.686410</v>
+        <v>77810.686409999995</v>
       </c>
       <c r="Q13" s="1">
-        <v>21.614080</v>
+        <v>21.614080000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>1322.580000</v>
+        <v>1322.58</v>
       </c>
       <c r="S13" s="1">
-        <v>-185.974000</v>
+        <v>-185.97399999999999</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>77821.202589</v>
+        <v>77821.202588999993</v>
       </c>
       <c r="V13" s="1">
-        <v>21.617001</v>
+        <v>21.617000999999998</v>
       </c>
       <c r="W13" s="1">
-        <v>1336.680000</v>
+        <v>1336.68</v>
       </c>
       <c r="X13" s="1">
-        <v>-172.814000</v>
+        <v>-172.81399999999999</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>77831.680080</v>
+        <v>77831.680080000006</v>
       </c>
       <c r="AA13" s="1">
-        <v>21.619911</v>
+        <v>21.619910999999998</v>
       </c>
       <c r="AB13" s="1">
-        <v>1354.610000</v>
+        <v>1354.61</v>
       </c>
       <c r="AC13" s="1">
-        <v>-170.835000</v>
+        <v>-170.83500000000001</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>77842.200721</v>
+        <v>77842.200721000001</v>
       </c>
       <c r="AF13" s="1">
-        <v>21.622834</v>
+        <v>21.622834000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>1368.170000</v>
+        <v>1368.17</v>
       </c>
       <c r="AH13" s="1">
-        <v>-180.341000</v>
+        <v>-180.34100000000001</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>77853.026437</v>
+        <v>77853.026436999993</v>
       </c>
       <c r="AK13" s="1">
-        <v>21.625841</v>
+        <v>21.625841000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>1389.720000</v>
+        <v>1389.72</v>
       </c>
       <c r="AM13" s="1">
-        <v>-210.046000</v>
+        <v>-210.04599999999999</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>77863.789093</v>
+        <v>77863.789092999999</v>
       </c>
       <c r="AP13" s="1">
-        <v>21.628830</v>
+        <v>21.628830000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1412.190000</v>
+        <v>1412.19</v>
       </c>
       <c r="AR13" s="1">
-        <v>-253.382000</v>
+        <v>-253.38200000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>77874.564678</v>
+        <v>77874.564677999995</v>
       </c>
       <c r="AU13" s="1">
-        <v>21.631824</v>
+        <v>21.631824000000002</v>
       </c>
       <c r="AV13" s="1">
-        <v>1437.500000</v>
+        <v>1437.5</v>
       </c>
       <c r="AW13" s="1">
-        <v>-312.578000</v>
+        <v>-312.57799999999997</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>77885.335342</v>
+        <v>77885.335342000006</v>
       </c>
       <c r="AZ13" s="1">
         <v>21.634815</v>
       </c>
       <c r="BA13" s="1">
-        <v>1457.350000</v>
+        <v>1457.35</v>
       </c>
       <c r="BB13" s="1">
-        <v>-363.957000</v>
+        <v>-363.95699999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>77895.934314</v>
+        <v>77895.934313999998</v>
       </c>
       <c r="BE13" s="1">
-        <v>21.637760</v>
+        <v>21.63776</v>
       </c>
       <c r="BF13" s="1">
-        <v>1544.280000</v>
+        <v>1544.28</v>
       </c>
       <c r="BG13" s="1">
-        <v>-608.489000</v>
+        <v>-608.48900000000003</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>77906.845340</v>
+        <v>77906.84534</v>
       </c>
       <c r="BJ13" s="1">
-        <v>21.640790</v>
+        <v>21.640789999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1700.570000</v>
+        <v>1700.57</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1045.830000</v>
+        <v>-1045.83</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>77918.312845</v>
+        <v>77918.312844999993</v>
       </c>
       <c r="BO13" s="1">
-        <v>21.643976</v>
+        <v>21.643975999999999</v>
       </c>
       <c r="BP13" s="1">
-        <v>1997.110000</v>
+        <v>1997.11</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1800.540000</v>
+        <v>-1800.54</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>77928.845358</v>
+        <v>77928.845358000006</v>
       </c>
       <c r="BT13" s="1">
         <v>21.646901</v>
       </c>
       <c r="BU13" s="1">
-        <v>2383.270000</v>
+        <v>2383.27</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2667.780000</v>
+        <v>-2667.78</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>77939.986992</v>
+        <v>77939.986992000006</v>
       </c>
       <c r="BY13" s="1">
-        <v>21.649996</v>
+        <v>21.649996000000002</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2868.500000</v>
+        <v>2868.5</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3609.900000</v>
+        <v>-3609.9</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>77952.060125</v>
+        <v>77952.060125000004</v>
       </c>
       <c r="CD13" s="1">
-        <v>21.653350</v>
+        <v>21.65335</v>
       </c>
       <c r="CE13" s="1">
-        <v>4260.970000</v>
+        <v>4260.97</v>
       </c>
       <c r="CF13" s="1">
-        <v>-5863.520000</v>
+        <v>-5863.52</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>77779.495524</v>
+        <v>77779.495523999998</v>
       </c>
       <c r="B14" s="1">
-        <v>21.605415</v>
+        <v>21.605415000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>1247.840000</v>
+        <v>1247.8399999999999</v>
       </c>
       <c r="D14" s="1">
-        <v>-304.191000</v>
+        <v>-304.19099999999997</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>77790.320182</v>
+        <v>77790.320181999996</v>
       </c>
       <c r="G14" s="1">
-        <v>21.608422</v>
+        <v>21.608422000000001</v>
       </c>
       <c r="H14" s="1">
-        <v>1273.330000</v>
+        <v>1273.33</v>
       </c>
       <c r="I14" s="1">
-        <v>-264.344000</v>
+        <v>-264.34399999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>77800.512472</v>
+        <v>77800.512472000002</v>
       </c>
       <c r="L14" s="1">
-        <v>21.611253</v>
+        <v>21.611253000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>1310.000000</v>
+        <v>1310</v>
       </c>
       <c r="N14" s="1">
-        <v>-203.702000</v>
+        <v>-203.702</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>77811.033610</v>
+        <v>77811.033609999999</v>
       </c>
       <c r="Q14" s="1">
         <v>21.614176</v>
       </c>
       <c r="R14" s="1">
-        <v>1322.610000</v>
+        <v>1322.61</v>
       </c>
       <c r="S14" s="1">
-        <v>-185.903000</v>
+        <v>-185.90299999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>77821.548798</v>
+        <v>77821.548798000003</v>
       </c>
       <c r="V14" s="1">
-        <v>21.617097</v>
+        <v>21.617097000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>1336.480000</v>
+        <v>1336.48</v>
       </c>
       <c r="X14" s="1">
-        <v>-172.848000</v>
+        <v>-172.84800000000001</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>77832.028270</v>
+        <v>77832.028269999995</v>
       </c>
       <c r="AA14" s="1">
-        <v>21.620008</v>
+        <v>21.620007999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>1354.660000</v>
+        <v>1354.66</v>
       </c>
       <c r="AC14" s="1">
-        <v>-170.745000</v>
+        <v>-170.745</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>77842.872339</v>
+        <v>77842.872338999994</v>
       </c>
       <c r="AF14" s="1">
-        <v>21.623020</v>
+        <v>21.62302</v>
       </c>
       <c r="AG14" s="1">
-        <v>1368.130000</v>
+        <v>1368.13</v>
       </c>
       <c r="AH14" s="1">
-        <v>-180.467000</v>
+        <v>-180.46700000000001</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>77853.407362</v>
+        <v>77853.407361999998</v>
       </c>
       <c r="AK14" s="1">
-        <v>21.625946</v>
+        <v>21.625945999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>1389.710000</v>
+        <v>1389.71</v>
       </c>
       <c r="AM14" s="1">
-        <v>-210.044000</v>
+        <v>-210.04400000000001</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>77864.185396</v>
+        <v>77864.185396000001</v>
       </c>
       <c r="AP14" s="1">
-        <v>21.628940</v>
+        <v>21.62894</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1412.160000</v>
+        <v>1412.16</v>
       </c>
       <c r="AR14" s="1">
-        <v>-253.376000</v>
+        <v>-253.376</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>77874.930263</v>
+        <v>77874.930263000002</v>
       </c>
       <c r="AU14" s="1">
-        <v>21.631925</v>
+        <v>21.631924999999999</v>
       </c>
       <c r="AV14" s="1">
-        <v>1437.510000</v>
+        <v>1437.51</v>
       </c>
       <c r="AW14" s="1">
-        <v>-312.566000</v>
+        <v>-312.56599999999997</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>77885.694440</v>
+        <v>77885.694440000007</v>
       </c>
       <c r="AZ14" s="1">
-        <v>21.634915</v>
+        <v>21.634914999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>1457.360000</v>
+        <v>1457.36</v>
       </c>
       <c r="BB14" s="1">
-        <v>-363.960000</v>
+        <v>-363.96</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>77896.297386</v>
+        <v>77896.297386000006</v>
       </c>
       <c r="BE14" s="1">
-        <v>21.637860</v>
+        <v>21.63786</v>
       </c>
       <c r="BF14" s="1">
-        <v>1544.250000</v>
+        <v>1544.25</v>
       </c>
       <c r="BG14" s="1">
-        <v>-608.498000</v>
+        <v>-608.49800000000005</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>77907.286757</v>
+        <v>77907.286756999994</v>
       </c>
       <c r="BJ14" s="1">
-        <v>21.640913</v>
+        <v>21.640913000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1700.510000</v>
+        <v>1700.51</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1045.790000</v>
+        <v>-1045.79</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>77918.710604</v>
+        <v>77918.710604000007</v>
       </c>
       <c r="BO14" s="1">
-        <v>21.644086</v>
+        <v>21.644086000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1997.250000</v>
+        <v>1997.25</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1800.590000</v>
+        <v>-1800.59</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>77929.253070</v>
+        <v>77929.253070000006</v>
       </c>
       <c r="BT14" s="1">
         <v>21.647015</v>
       </c>
       <c r="BU14" s="1">
-        <v>2383.480000</v>
+        <v>2383.48</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2668.140000</v>
+        <v>-2668.14</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
         <v>77940.408593</v>
       </c>
       <c r="BY14" s="1">
-        <v>21.650113</v>
+        <v>21.650113000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2868.980000</v>
+        <v>2868.98</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3609.640000</v>
+        <v>-3609.64</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>77952.579455</v>
+        <v>77952.579454999999</v>
       </c>
       <c r="CD14" s="1">
-        <v>21.653494</v>
+        <v>21.653493999999998</v>
       </c>
       <c r="CE14" s="1">
-        <v>4280.270000</v>
+        <v>4280.2700000000004</v>
       </c>
       <c r="CF14" s="1">
-        <v>-5868.740000</v>
+        <v>-5868.74</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>77780.178483</v>
+        <v>77780.178482999996</v>
       </c>
       <c r="B15" s="1">
-        <v>21.605605</v>
+        <v>21.605605000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>1247.780000</v>
+        <v>1247.78</v>
       </c>
       <c r="D15" s="1">
-        <v>-303.864000</v>
+        <v>-303.86399999999998</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>77790.669894</v>
+        <v>77790.669894000006</v>
       </c>
       <c r="G15" s="1">
-        <v>21.608519</v>
+        <v>21.608519000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>1272.450000</v>
+        <v>1272.45</v>
       </c>
       <c r="I15" s="1">
-        <v>-263.807000</v>
+        <v>-263.80700000000002</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>77800.862152</v>
+        <v>77800.862152000002</v>
       </c>
       <c r="L15" s="1">
-        <v>21.611351</v>
+        <v>21.611350999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>1310.060000</v>
+        <v>1310.06</v>
       </c>
       <c r="N15" s="1">
-        <v>-203.638000</v>
+        <v>-203.63800000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>77811.381803</v>
+        <v>77811.381802999997</v>
       </c>
       <c r="Q15" s="1">
-        <v>21.614273</v>
+        <v>21.614273000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>1322.620000</v>
+        <v>1322.62</v>
       </c>
       <c r="S15" s="1">
-        <v>-185.967000</v>
+        <v>-185.96700000000001</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>77822.203052</v>
+        <v>77822.203051999997</v>
       </c>
       <c r="V15" s="1">
         <v>21.617279</v>
       </c>
       <c r="W15" s="1">
-        <v>1336.490000</v>
+        <v>1336.49</v>
       </c>
       <c r="X15" s="1">
-        <v>-172.605000</v>
+        <v>-172.60499999999999</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>77832.695886</v>
+        <v>77832.695886000001</v>
       </c>
       <c r="AA15" s="1">
         <v>21.620193</v>
       </c>
       <c r="AB15" s="1">
-        <v>1354.620000</v>
+        <v>1354.62</v>
       </c>
       <c r="AC15" s="1">
-        <v>-170.730000</v>
+        <v>-170.73</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>77843.227967</v>
+        <v>77843.227966999999</v>
       </c>
       <c r="AF15" s="1">
-        <v>21.623119</v>
+        <v>21.623118999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>1368.030000</v>
+        <v>1368.03</v>
       </c>
       <c r="AH15" s="1">
-        <v>-180.303000</v>
+        <v>-180.303</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>77853.757010</v>
+        <v>77853.757010000001</v>
       </c>
       <c r="AK15" s="1">
         <v>21.626044</v>
       </c>
       <c r="AL15" s="1">
-        <v>1389.710000</v>
+        <v>1389.71</v>
       </c>
       <c r="AM15" s="1">
-        <v>-210.042000</v>
+        <v>-210.042</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
         <v>77864.573267</v>
       </c>
       <c r="AP15" s="1">
-        <v>21.629048</v>
+        <v>21.629048000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1412.170000</v>
+        <v>1412.17</v>
       </c>
       <c r="AR15" s="1">
-        <v>-253.370000</v>
+        <v>-253.37</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>77875.286860</v>
+        <v>77875.286859999993</v>
       </c>
       <c r="AU15" s="1">
-        <v>21.632024</v>
+        <v>21.632024000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>1437.520000</v>
+        <v>1437.52</v>
       </c>
       <c r="AW15" s="1">
-        <v>-312.589000</v>
+        <v>-312.589</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>77886.114519</v>
+        <v>77886.114518999995</v>
       </c>
       <c r="AZ15" s="1">
-        <v>21.635032</v>
+        <v>21.635031999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1457.380000</v>
+        <v>1457.38</v>
       </c>
       <c r="BB15" s="1">
-        <v>-363.910000</v>
+        <v>-363.91</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>77896.722953</v>
+        <v>77896.722953000004</v>
       </c>
       <c r="BE15" s="1">
-        <v>21.637979</v>
+        <v>21.637979000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1544.310000</v>
+        <v>1544.31</v>
       </c>
       <c r="BG15" s="1">
-        <v>-608.528000</v>
+        <v>-608.52800000000002</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>77907.620738</v>
+        <v>77907.620737999998</v>
       </c>
       <c r="BJ15" s="1">
-        <v>21.641006</v>
+        <v>21.641006000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1700.530000</v>
+        <v>1700.53</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1045.760000</v>
+        <v>-1045.76</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>77919.132731</v>
+        <v>77919.132731000005</v>
       </c>
       <c r="BO15" s="1">
-        <v>21.644204</v>
+        <v>21.644203999999998</v>
       </c>
       <c r="BP15" s="1">
-        <v>1997.110000</v>
+        <v>1997.11</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1800.480000</v>
+        <v>-1800.48</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>77929.664255</v>
+        <v>77929.664254999996</v>
       </c>
       <c r="BT15" s="1">
         <v>21.647129</v>
       </c>
       <c r="BU15" s="1">
-        <v>2383.480000</v>
+        <v>2383.48</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2668.560000</v>
+        <v>-2668.56</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>77940.832175</v>
+        <v>77940.832175000003</v>
       </c>
       <c r="BY15" s="1">
-        <v>21.650231</v>
+        <v>21.650231000000002</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2868.820000</v>
+        <v>2868.82</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3609.600000</v>
+        <v>-3609.6</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>77953.115637</v>
+        <v>77953.115636999995</v>
       </c>
       <c r="CD15" s="1">
-        <v>21.653643</v>
+        <v>21.653642999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>4268.970000</v>
+        <v>4268.97</v>
       </c>
       <c r="CF15" s="1">
-        <v>-5854.720000</v>
+        <v>-5854.72</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>77780.523203</v>
+        <v>77780.523203000004</v>
       </c>
       <c r="B16" s="1">
         <v>21.605701</v>
       </c>
       <c r="C16" s="1">
-        <v>1247.890000</v>
+        <v>1247.8900000000001</v>
       </c>
       <c r="D16" s="1">
-        <v>-303.948000</v>
+        <v>-303.94799999999998</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>77791.017061</v>
+        <v>77791.017061000006</v>
       </c>
       <c r="G16" s="1">
-        <v>21.608616</v>
+        <v>21.608616000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>1272.860000</v>
+        <v>1272.8599999999999</v>
       </c>
       <c r="I16" s="1">
-        <v>-264.771000</v>
+        <v>-264.77100000000002</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>77801.521335</v>
+        <v>77801.521334999998</v>
       </c>
       <c r="L16" s="1">
-        <v>21.611534</v>
+        <v>21.611533999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>1310.250000</v>
+        <v>1310.25</v>
       </c>
       <c r="N16" s="1">
-        <v>-203.894000</v>
+        <v>-203.89400000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>77812.040027</v>
+        <v>77812.040026999995</v>
       </c>
       <c r="Q16" s="1">
-        <v>21.614456</v>
+        <v>21.614456000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>1322.610000</v>
+        <v>1322.61</v>
       </c>
       <c r="S16" s="1">
-        <v>-186.077000</v>
+        <v>-186.077</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>77822.577499</v>
+        <v>77822.577499000006</v>
       </c>
       <c r="V16" s="1">
         <v>21.617383</v>
       </c>
       <c r="W16" s="1">
-        <v>1336.460000</v>
+        <v>1336.46</v>
       </c>
       <c r="X16" s="1">
-        <v>-172.789000</v>
+        <v>-172.78899999999999</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>77833.073837</v>
+        <v>77833.073837000004</v>
       </c>
       <c r="AA16" s="1">
-        <v>21.620298</v>
+        <v>21.620297999999998</v>
       </c>
       <c r="AB16" s="1">
-        <v>1354.610000</v>
+        <v>1354.61</v>
       </c>
       <c r="AC16" s="1">
-        <v>-170.639000</v>
+        <v>-170.63900000000001</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
         <v>77843.582079</v>
@@ -4169,43 +4585,43 @@
         <v>21.623217</v>
       </c>
       <c r="AG16" s="1">
-        <v>1368.230000</v>
+        <v>1368.23</v>
       </c>
       <c r="AH16" s="1">
-        <v>-180.485000</v>
+        <v>-180.48500000000001</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>77854.108186</v>
+        <v>77854.108185999998</v>
       </c>
       <c r="AK16" s="1">
-        <v>21.626141</v>
+        <v>21.626141000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>1389.700000</v>
+        <v>1389.7</v>
       </c>
       <c r="AM16" s="1">
-        <v>-210.049000</v>
+        <v>-210.04900000000001</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>77864.939811</v>
+        <v>77864.939811000004</v>
       </c>
       <c r="AP16" s="1">
-        <v>21.629150</v>
+        <v>21.629149999999999</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1412.190000</v>
+        <v>1412.19</v>
       </c>
       <c r="AR16" s="1">
-        <v>-253.376000</v>
+        <v>-253.376</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>77875.719396</v>
@@ -4214,225 +4630,225 @@
         <v>21.632144</v>
       </c>
       <c r="AV16" s="1">
-        <v>1437.500000</v>
+        <v>1437.5</v>
       </c>
       <c r="AW16" s="1">
-        <v>-312.598000</v>
+        <v>-312.59800000000001</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>77886.413607</v>
+        <v>77886.413606999995</v>
       </c>
       <c r="AZ16" s="1">
-        <v>21.635115</v>
+        <v>21.635114999999999</v>
       </c>
       <c r="BA16" s="1">
-        <v>1457.370000</v>
+        <v>1457.37</v>
       </c>
       <c r="BB16" s="1">
-        <v>-363.962000</v>
+        <v>-363.96199999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>77897.019066</v>
+        <v>77897.019065999993</v>
       </c>
       <c r="BE16" s="1">
         <v>21.638061</v>
       </c>
       <c r="BF16" s="1">
-        <v>1544.220000</v>
+        <v>1544.22</v>
       </c>
       <c r="BG16" s="1">
-        <v>-608.495000</v>
+        <v>-608.495</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>77907.994042</v>
+        <v>77907.994042000006</v>
       </c>
       <c r="BJ16" s="1">
         <v>21.641109</v>
       </c>
       <c r="BK16" s="1">
-        <v>1700.470000</v>
+        <v>1700.47</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1045.730000</v>
+        <v>-1045.73</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>77919.529997</v>
+        <v>77919.529997000005</v>
       </c>
       <c r="BO16" s="1">
-        <v>21.644314</v>
+        <v>21.644314000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1997.000000</v>
+        <v>1997</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1800.430000</v>
+        <v>-1800.43</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>77930.080924</v>
+        <v>77930.080923999994</v>
       </c>
       <c r="BT16" s="1">
-        <v>21.647245</v>
+        <v>21.647245000000002</v>
       </c>
       <c r="BU16" s="1">
-        <v>2384.130000</v>
+        <v>2384.13</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2669.250000</v>
+        <v>-2669.25</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>77941.281054</v>
+        <v>77941.281054000006</v>
       </c>
       <c r="BY16" s="1">
-        <v>21.650356</v>
+        <v>21.650355999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2867.790000</v>
+        <v>2867.79</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3608.800000</v>
+        <v>-3608.8</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>77953.657725</v>
+        <v>77953.657724999997</v>
       </c>
       <c r="CD16" s="1">
-        <v>21.653794</v>
+        <v>21.653794000000001</v>
       </c>
       <c r="CE16" s="1">
-        <v>4270.660000</v>
+        <v>4270.66</v>
       </c>
       <c r="CF16" s="1">
-        <v>-5873.850000</v>
+        <v>-5873.85</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>77780.866435</v>
+        <v>77780.866435000004</v>
       </c>
       <c r="B17" s="1">
-        <v>21.605796</v>
+        <v>21.605796000000002</v>
       </c>
       <c r="C17" s="1">
-        <v>1247.670000</v>
+        <v>1247.67</v>
       </c>
       <c r="D17" s="1">
-        <v>-304.130000</v>
+        <v>-304.13</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>77791.684676</v>
+        <v>77791.684676000004</v>
       </c>
       <c r="G17" s="1">
         <v>21.608801</v>
       </c>
       <c r="H17" s="1">
-        <v>1273.500000</v>
+        <v>1273.5</v>
       </c>
       <c r="I17" s="1">
-        <v>-264.039000</v>
+        <v>-264.03899999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>77801.893366</v>
+        <v>77801.893366000004</v>
       </c>
       <c r="L17" s="1">
-        <v>21.611637</v>
+        <v>21.611637000000002</v>
       </c>
       <c r="M17" s="1">
-        <v>1310.290000</v>
+        <v>1310.29</v>
       </c>
       <c r="N17" s="1">
-        <v>-203.723000</v>
+        <v>-203.72300000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>77812.428857</v>
+        <v>77812.428857000006</v>
       </c>
       <c r="Q17" s="1">
-        <v>21.614564</v>
+        <v>21.614564000000001</v>
       </c>
       <c r="R17" s="1">
-        <v>1322.500000</v>
+        <v>1322.5</v>
       </c>
       <c r="S17" s="1">
-        <v>-186.121000</v>
+        <v>-186.12100000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>77822.921227</v>
+        <v>77822.921226999999</v>
       </c>
       <c r="V17" s="1">
-        <v>21.617478</v>
+        <v>21.617477999999998</v>
       </c>
       <c r="W17" s="1">
-        <v>1336.550000</v>
+        <v>1336.55</v>
       </c>
       <c r="X17" s="1">
-        <v>-172.876000</v>
+        <v>-172.876</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>77833.429965</v>
+        <v>77833.429965000003</v>
       </c>
       <c r="AA17" s="1">
-        <v>21.620397</v>
+        <v>21.620397000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>1354.580000</v>
+        <v>1354.58</v>
       </c>
       <c r="AC17" s="1">
-        <v>-170.750000</v>
+        <v>-170.75</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
         <v>77843.929311</v>
       </c>
       <c r="AF17" s="1">
-        <v>21.623314</v>
+        <v>21.623314000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>1368.140000</v>
+        <v>1368.14</v>
       </c>
       <c r="AH17" s="1">
-        <v>-180.397000</v>
+        <v>-180.39699999999999</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
         <v>77854.528821</v>
@@ -4441,375 +4857,375 @@
         <v>21.626258</v>
       </c>
       <c r="AL17" s="1">
-        <v>1389.690000</v>
+        <v>1389.69</v>
       </c>
       <c r="AM17" s="1">
-        <v>-210.042000</v>
+        <v>-210.042</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>77865.362402</v>
+        <v>77865.362401999999</v>
       </c>
       <c r="AP17" s="1">
-        <v>21.629267</v>
+        <v>21.629266999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1412.160000</v>
+        <v>1412.16</v>
       </c>
       <c r="AR17" s="1">
-        <v>-253.374000</v>
+        <v>-253.374</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>77876.021956</v>
+        <v>77876.021955999997</v>
       </c>
       <c r="AU17" s="1">
-        <v>21.632228</v>
+        <v>21.632228000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>1437.530000</v>
+        <v>1437.53</v>
       </c>
       <c r="AW17" s="1">
-        <v>-312.572000</v>
+        <v>-312.572</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>77886.772710</v>
+        <v>77886.772710000005</v>
       </c>
       <c r="AZ17" s="1">
-        <v>21.635215</v>
+        <v>21.635214999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1457.360000</v>
+        <v>1457.36</v>
       </c>
       <c r="BB17" s="1">
-        <v>-363.938000</v>
+        <v>-363.93799999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>77897.380648</v>
+        <v>77897.380648000006</v>
       </c>
       <c r="BE17" s="1">
         <v>21.638161</v>
       </c>
       <c r="BF17" s="1">
-        <v>1544.280000</v>
+        <v>1544.28</v>
       </c>
       <c r="BG17" s="1">
-        <v>-608.499000</v>
+        <v>-608.49900000000002</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>77908.373482</v>
+        <v>77908.373481999995</v>
       </c>
       <c r="BJ17" s="1">
-        <v>21.641215</v>
+        <v>21.641214999999999</v>
       </c>
       <c r="BK17" s="1">
-        <v>1700.510000</v>
+        <v>1700.51</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1045.720000</v>
+        <v>-1045.72</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>77919.961020</v>
+        <v>77919.961020000002</v>
       </c>
       <c r="BO17" s="1">
         <v>21.644434</v>
       </c>
       <c r="BP17" s="1">
-        <v>1997.030000</v>
+        <v>1997.03</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1800.370000</v>
+        <v>-1800.37</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>77930.906765</v>
+        <v>77930.906765000007</v>
       </c>
       <c r="BT17" s="1">
-        <v>21.647474</v>
+        <v>21.647473999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>2384.470000</v>
+        <v>2384.4699999999998</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2669.680000</v>
+        <v>-2669.68</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>77941.711085</v>
+        <v>77941.711085000003</v>
       </c>
       <c r="BY17" s="1">
         <v>21.650475</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2867.880000</v>
+        <v>2867.88</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3609.860000</v>
+        <v>-3609.86</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>77954.199853</v>
+        <v>77954.199852999998</v>
       </c>
       <c r="CD17" s="1">
-        <v>21.653944</v>
+        <v>21.653943999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>4280.930000</v>
+        <v>4280.93</v>
       </c>
       <c r="CF17" s="1">
-        <v>-5855.380000</v>
+        <v>-5855.38</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>77781.531570</v>
+        <v>77781.531570000006</v>
       </c>
       <c r="B18" s="1">
         <v>21.605981</v>
       </c>
       <c r="C18" s="1">
-        <v>1247.820000</v>
+        <v>1247.82</v>
       </c>
       <c r="D18" s="1">
-        <v>-303.979000</v>
+        <v>-303.97899999999998</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>77792.048776</v>
+        <v>77792.048775999996</v>
       </c>
       <c r="G18" s="1">
         <v>21.608902</v>
       </c>
       <c r="H18" s="1">
-        <v>1273.300000</v>
+        <v>1273.3</v>
       </c>
       <c r="I18" s="1">
-        <v>-263.972000</v>
+        <v>-263.97199999999998</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>77802.239046</v>
+        <v>77802.239046000002</v>
       </c>
       <c r="L18" s="1">
-        <v>21.611733</v>
+        <v>21.611733000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>1310.020000</v>
+        <v>1310.02</v>
       </c>
       <c r="N18" s="1">
-        <v>-203.956000</v>
+        <v>-203.95599999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>77812.777544</v>
+        <v>77812.777543999997</v>
       </c>
       <c r="Q18" s="1">
-        <v>21.614660</v>
+        <v>21.614660000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>1322.510000</v>
+        <v>1322.51</v>
       </c>
       <c r="S18" s="1">
-        <v>-185.963000</v>
+        <v>-185.96299999999999</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>77823.271402</v>
+        <v>77823.271401999998</v>
       </c>
       <c r="V18" s="1">
-        <v>21.617575</v>
+        <v>21.617574999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>1336.500000</v>
+        <v>1336.5</v>
       </c>
       <c r="X18" s="1">
-        <v>-172.700000</v>
+        <v>-172.7</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>77833.862477</v>
+        <v>77833.862477000002</v>
       </c>
       <c r="AA18" s="1">
         <v>21.620517</v>
       </c>
       <c r="AB18" s="1">
-        <v>1354.670000</v>
+        <v>1354.67</v>
       </c>
       <c r="AC18" s="1">
-        <v>-170.765000</v>
+        <v>-170.76499999999999</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>77844.350878</v>
+        <v>77844.350877999997</v>
       </c>
       <c r="AF18" s="1">
         <v>21.623431</v>
       </c>
       <c r="AG18" s="1">
-        <v>1368.240000</v>
+        <v>1368.24</v>
       </c>
       <c r="AH18" s="1">
-        <v>-180.436000</v>
+        <v>-180.43600000000001</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>77854.808775</v>
+        <v>77854.808774999998</v>
       </c>
       <c r="AK18" s="1">
-        <v>21.626336</v>
+        <v>21.626335999999998</v>
       </c>
       <c r="AL18" s="1">
-        <v>1389.690000</v>
+        <v>1389.69</v>
       </c>
       <c r="AM18" s="1">
-        <v>-210.052000</v>
+        <v>-210.05199999999999</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>77865.659010</v>
+        <v>77865.659010000003</v>
       </c>
       <c r="AP18" s="1">
-        <v>21.629350</v>
+        <v>21.629349999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1412.160000</v>
+        <v>1412.16</v>
       </c>
       <c r="AR18" s="1">
-        <v>-253.330000</v>
+        <v>-253.33</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>77876.384004</v>
+        <v>77876.384004000007</v>
       </c>
       <c r="AU18" s="1">
-        <v>21.632329</v>
+        <v>21.632328999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>1437.510000</v>
+        <v>1437.51</v>
       </c>
       <c r="AW18" s="1">
-        <v>-312.583000</v>
+        <v>-312.58300000000003</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>77887.129830</v>
+        <v>77887.129830000005</v>
       </c>
       <c r="AZ18" s="1">
-        <v>21.635314</v>
+        <v>21.635314000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>1457.370000</v>
+        <v>1457.37</v>
       </c>
       <c r="BB18" s="1">
-        <v>-363.960000</v>
+        <v>-363.96</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>77897.740743</v>
+        <v>77897.740743000002</v>
       </c>
       <c r="BE18" s="1">
         <v>21.638261</v>
       </c>
       <c r="BF18" s="1">
-        <v>1544.310000</v>
+        <v>1544.31</v>
       </c>
       <c r="BG18" s="1">
-        <v>-608.494000</v>
+        <v>-608.49400000000003</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>77909.117977</v>
+        <v>77909.117977000002</v>
       </c>
       <c r="BJ18" s="1">
-        <v>21.641422</v>
+        <v>21.641421999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1700.600000</v>
+        <v>1700.6</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1045.720000</v>
+        <v>-1045.72</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>77920.343963</v>
+        <v>77920.343963000007</v>
       </c>
       <c r="BO18" s="1">
-        <v>21.644540</v>
+        <v>21.644539999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1997.060000</v>
+        <v>1997.06</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1800.540000</v>
+        <v>-1800.54</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>77931.319405</v>
+        <v>77931.319405000002</v>
       </c>
       <c r="BT18" s="1">
         <v>21.647589</v>
       </c>
       <c r="BU18" s="1">
-        <v>2385.080000</v>
+        <v>2385.08</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2669.670000</v>
+        <v>-2669.67</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
         <v>77942.132717</v>
@@ -4818,165 +5234,165 @@
         <v>21.650592</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2868.460000</v>
+        <v>2868.46</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3609.970000</v>
+        <v>-3609.97</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>77955.039115</v>
+        <v>77955.039115000007</v>
       </c>
       <c r="CD18" s="1">
-        <v>21.654178</v>
+        <v>21.654178000000002</v>
       </c>
       <c r="CE18" s="1">
-        <v>4277.430000</v>
+        <v>4277.43</v>
       </c>
       <c r="CF18" s="1">
-        <v>-5875.100000</v>
+        <v>-5875.1</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>77781.896130</v>
+        <v>77781.896129999994</v>
       </c>
       <c r="B19" s="1">
-        <v>21.606082</v>
+        <v>21.606082000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>1247.600000</v>
+        <v>1247.5999999999999</v>
       </c>
       <c r="D19" s="1">
-        <v>-304.309000</v>
+        <v>-304.30900000000003</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>77792.392978</v>
+        <v>77792.392978000003</v>
       </c>
       <c r="G19" s="1">
         <v>21.608998</v>
       </c>
       <c r="H19" s="1">
-        <v>1272.650000</v>
+        <v>1272.6500000000001</v>
       </c>
       <c r="I19" s="1">
-        <v>-264.108000</v>
+        <v>-264.108</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>77802.586247</v>
+        <v>77802.586246999999</v>
       </c>
       <c r="L19" s="1">
-        <v>21.611830</v>
+        <v>21.611830000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>1310.230000</v>
+        <v>1310.23</v>
       </c>
       <c r="N19" s="1">
-        <v>-203.648000</v>
+        <v>-203.648</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>77813.125736</v>
+        <v>77813.125736000002</v>
       </c>
       <c r="Q19" s="1">
-        <v>21.614757</v>
+        <v>21.614757000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>1322.590000</v>
+        <v>1322.59</v>
       </c>
       <c r="S19" s="1">
-        <v>-185.991000</v>
+        <v>-185.99100000000001</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>77823.701962</v>
+        <v>77823.701962000006</v>
       </c>
       <c r="V19" s="1">
-        <v>21.617695</v>
+        <v>21.617695000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>1336.520000</v>
+        <v>1336.52</v>
       </c>
       <c r="X19" s="1">
-        <v>-172.702000</v>
+        <v>-172.702</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>77834.141725</v>
+        <v>77834.141724999994</v>
       </c>
       <c r="AA19" s="1">
-        <v>21.620595</v>
+        <v>21.620595000000002</v>
       </c>
       <c r="AB19" s="1">
-        <v>1354.650000</v>
+        <v>1354.65</v>
       </c>
       <c r="AC19" s="1">
-        <v>-170.705000</v>
+        <v>-170.70500000000001</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>77844.628670</v>
+        <v>77844.628670000006</v>
       </c>
       <c r="AF19" s="1">
-        <v>21.623508</v>
+        <v>21.623508000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>1368.110000</v>
+        <v>1368.11</v>
       </c>
       <c r="AH19" s="1">
-        <v>-180.312000</v>
+        <v>-180.31200000000001</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>77855.158712</v>
+        <v>77855.158712000004</v>
       </c>
       <c r="AK19" s="1">
-        <v>21.626433</v>
+        <v>21.626432999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>1389.690000</v>
+        <v>1389.69</v>
       </c>
       <c r="AM19" s="1">
-        <v>-210.042000</v>
+        <v>-210.042</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>77866.018114</v>
+        <v>77866.018114000006</v>
       </c>
       <c r="AP19" s="1">
-        <v>21.629449</v>
+        <v>21.629449000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1412.150000</v>
+        <v>1412.15</v>
       </c>
       <c r="AR19" s="1">
-        <v>-253.367000</v>
+        <v>-253.36699999999999</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>77876.753029</v>
@@ -4985,330 +5401,330 @@
         <v>21.632431</v>
       </c>
       <c r="AV19" s="1">
-        <v>1437.510000</v>
+        <v>1437.51</v>
       </c>
       <c r="AW19" s="1">
-        <v>-312.556000</v>
+        <v>-312.55599999999998</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>77887.847575</v>
+        <v>77887.847575000007</v>
       </c>
       <c r="AZ19" s="1">
         <v>21.635513</v>
       </c>
       <c r="BA19" s="1">
-        <v>1457.380000</v>
+        <v>1457.38</v>
       </c>
       <c r="BB19" s="1">
-        <v>-363.906000</v>
+        <v>-363.90600000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>77898.467386</v>
+        <v>77898.467386000004</v>
       </c>
       <c r="BE19" s="1">
-        <v>21.638463</v>
+        <v>21.638463000000002</v>
       </c>
       <c r="BF19" s="1">
-        <v>1544.280000</v>
+        <v>1544.28</v>
       </c>
       <c r="BG19" s="1">
-        <v>-608.470000</v>
+        <v>-608.47</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>77909.497950</v>
+        <v>77909.497950000004</v>
       </c>
       <c r="BJ19" s="1">
         <v>21.641527</v>
       </c>
       <c r="BK19" s="1">
-        <v>1700.520000</v>
+        <v>1700.52</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1045.720000</v>
+        <v>-1045.72</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>77920.765531</v>
+        <v>77920.765530999997</v>
       </c>
       <c r="BO19" s="1">
-        <v>21.644657</v>
+        <v>21.644656999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1997.210000</v>
+        <v>1997.21</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1800.410000</v>
+        <v>-1800.41</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>77931.755916</v>
+        <v>77931.755915999995</v>
       </c>
       <c r="BT19" s="1">
-        <v>21.647710</v>
+        <v>21.64771</v>
       </c>
       <c r="BU19" s="1">
-        <v>2385.350000</v>
+        <v>2385.35</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2669.610000</v>
+        <v>-2669.61</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>77942.867568</v>
+        <v>77942.867568000001</v>
       </c>
       <c r="BY19" s="1">
-        <v>21.650797</v>
+        <v>21.650797000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2868.150000</v>
+        <v>2868.15</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3609.030000</v>
+        <v>-3609.03</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>77955.274188</v>
+        <v>77955.274187999996</v>
       </c>
       <c r="CD19" s="1">
-        <v>21.654243</v>
+        <v>21.654243000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>4281.180000</v>
+        <v>4281.18</v>
       </c>
       <c r="CF19" s="1">
-        <v>-5872.020000</v>
+        <v>-5872.02</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>77782.236385</v>
+        <v>77782.236384999997</v>
       </c>
       <c r="B20" s="1">
-        <v>21.606177</v>
+        <v>21.606176999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>1247.530000</v>
+        <v>1247.53</v>
       </c>
       <c r="D20" s="1">
-        <v>-304.201000</v>
+        <v>-304.20100000000002</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>77792.737682</v>
+        <v>77792.737682000006</v>
       </c>
       <c r="G20" s="1">
-        <v>21.609094</v>
+        <v>21.609093999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>1273.820000</v>
+        <v>1273.82</v>
       </c>
       <c r="I20" s="1">
-        <v>-264.427000</v>
+        <v>-264.42700000000002</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>77803.016809</v>
+        <v>77803.016808999993</v>
       </c>
       <c r="L20" s="1">
-        <v>21.611949</v>
+        <v>21.611948999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>1309.990000</v>
+        <v>1309.99</v>
       </c>
       <c r="N20" s="1">
-        <v>-203.760000</v>
+        <v>-203.76</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>77813.554775</v>
+        <v>77813.554774999997</v>
       </c>
       <c r="Q20" s="1">
-        <v>21.614876</v>
+        <v>21.614875999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>1322.640000</v>
+        <v>1322.64</v>
       </c>
       <c r="S20" s="1">
-        <v>-185.959000</v>
+        <v>-185.959</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>77823.975227</v>
+        <v>77823.975227000003</v>
       </c>
       <c r="V20" s="1">
-        <v>21.617771</v>
+        <v>21.617771000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>1336.610000</v>
+        <v>1336.61</v>
       </c>
       <c r="X20" s="1">
-        <v>-172.881000</v>
+        <v>-172.881</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>77834.490438</v>
+        <v>77834.490437999993</v>
       </c>
       <c r="AA20" s="1">
-        <v>21.620692</v>
+        <v>21.620691999999998</v>
       </c>
       <c r="AB20" s="1">
-        <v>1354.840000</v>
+        <v>1354.84</v>
       </c>
       <c r="AC20" s="1">
-        <v>-170.847000</v>
+        <v>-170.84700000000001</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>77844.972365</v>
+        <v>77844.972364999994</v>
       </c>
       <c r="AF20" s="1">
-        <v>21.623603</v>
+        <v>21.623602999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>1368.150000</v>
+        <v>1368.15</v>
       </c>
       <c r="AH20" s="1">
-        <v>-180.358000</v>
+        <v>-180.358</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>77855.504943</v>
+        <v>77855.504943000007</v>
       </c>
       <c r="AK20" s="1">
-        <v>21.626529</v>
+        <v>21.626529000000001</v>
       </c>
       <c r="AL20" s="1">
-        <v>1389.690000</v>
+        <v>1389.69</v>
       </c>
       <c r="AM20" s="1">
-        <v>-210.048000</v>
+        <v>-210.048</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>77866.376723</v>
+        <v>77866.376722999994</v>
       </c>
       <c r="AP20" s="1">
-        <v>21.629549</v>
+        <v>21.629549000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1412.160000</v>
+        <v>1412.16</v>
       </c>
       <c r="AR20" s="1">
-        <v>-253.348000</v>
+        <v>-253.34800000000001</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>77877.484132</v>
+        <v>77877.484131999998</v>
       </c>
       <c r="AU20" s="1">
-        <v>21.632634</v>
+        <v>21.632633999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>1437.520000</v>
+        <v>1437.52</v>
       </c>
       <c r="AW20" s="1">
-        <v>-312.570000</v>
+        <v>-312.57</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>77888.207668</v>
+        <v>77888.207668000003</v>
       </c>
       <c r="AZ20" s="1">
-        <v>21.635613</v>
+        <v>21.635612999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1457.390000</v>
+        <v>1457.39</v>
       </c>
       <c r="BB20" s="1">
-        <v>-363.921000</v>
+        <v>-363.92099999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>77898.846326</v>
+        <v>77898.846325999999</v>
       </c>
       <c r="BE20" s="1">
-        <v>21.638568</v>
+        <v>21.638567999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1544.260000</v>
+        <v>1544.26</v>
       </c>
       <c r="BG20" s="1">
-        <v>-608.438000</v>
+        <v>-608.43799999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>77909.874879</v>
+        <v>77909.874878999995</v>
       </c>
       <c r="BJ20" s="1">
-        <v>21.641632</v>
+        <v>21.641632000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1700.480000</v>
+        <v>1700.48</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1045.650000</v>
+        <v>-1045.6500000000001</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>77921.475837</v>
+        <v>77921.475837000005</v>
       </c>
       <c r="BO20" s="1">
-        <v>21.644854</v>
+        <v>21.644853999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1997.060000</v>
+        <v>1997.06</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1800.270000</v>
+        <v>-1800.27</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
         <v>77932.502859</v>
@@ -5317,1088 +5733,1088 @@
         <v>21.647917</v>
       </c>
       <c r="BU20" s="1">
-        <v>2385.870000</v>
+        <v>2385.87</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2669.470000</v>
+        <v>-2669.47</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>77942.980348</v>
+        <v>77942.980347999997</v>
       </c>
       <c r="BY20" s="1">
-        <v>21.650828</v>
+        <v>21.650828000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2869.060000</v>
+        <v>2869.06</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3608.880000</v>
+        <v>-3608.88</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>77955.796011</v>
+        <v>77955.796010999999</v>
       </c>
       <c r="CD20" s="1">
-        <v>21.654388</v>
+        <v>21.654388000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>4279.420000</v>
+        <v>4279.42</v>
       </c>
       <c r="CF20" s="1">
-        <v>-5856.070000</v>
+        <v>-5856.07</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>77782.614832</v>
+        <v>77782.614832000007</v>
       </c>
       <c r="B21" s="1">
         <v>21.606282</v>
       </c>
       <c r="C21" s="1">
-        <v>1247.670000</v>
+        <v>1247.67</v>
       </c>
       <c r="D21" s="1">
-        <v>-304.272000</v>
+        <v>-304.27199999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>77793.171186</v>
+        <v>77793.171186000007</v>
       </c>
       <c r="G21" s="1">
-        <v>21.609214</v>
+        <v>21.609214000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>1273.260000</v>
+        <v>1273.26</v>
       </c>
       <c r="I21" s="1">
-        <v>-264.994000</v>
+        <v>-264.99400000000003</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>77803.298501</v>
+        <v>77803.298500999997</v>
       </c>
       <c r="L21" s="1">
-        <v>21.612027</v>
+        <v>21.612027000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>1310.370000</v>
+        <v>1310.3699999999999</v>
       </c>
       <c r="N21" s="1">
-        <v>-203.821000</v>
+        <v>-203.821</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>77813.835048</v>
+        <v>77813.835047999994</v>
       </c>
       <c r="Q21" s="1">
-        <v>21.614954</v>
+        <v>21.614954000000001</v>
       </c>
       <c r="R21" s="1">
-        <v>1322.640000</v>
+        <v>1322.64</v>
       </c>
       <c r="S21" s="1">
-        <v>-185.992000</v>
+        <v>-185.99199999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>77824.319449</v>
+        <v>77824.319449000002</v>
       </c>
       <c r="V21" s="1">
         <v>21.617867</v>
       </c>
       <c r="W21" s="1">
-        <v>1336.350000</v>
+        <v>1336.35</v>
       </c>
       <c r="X21" s="1">
-        <v>-172.907000</v>
+        <v>-172.90700000000001</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>77834.836133</v>
+        <v>77834.836133000004</v>
       </c>
       <c r="AA21" s="1">
-        <v>21.620788</v>
+        <v>21.620788000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>1354.610000</v>
+        <v>1354.61</v>
       </c>
       <c r="AC21" s="1">
-        <v>-170.788000</v>
+        <v>-170.78800000000001</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>77845.314619</v>
+        <v>77845.314618999997</v>
       </c>
       <c r="AF21" s="1">
-        <v>21.623699</v>
+        <v>21.623698999999998</v>
       </c>
       <c r="AG21" s="1">
-        <v>1368.150000</v>
+        <v>1368.15</v>
       </c>
       <c r="AH21" s="1">
-        <v>-180.393000</v>
+        <v>-180.393</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>77856.201294</v>
+        <v>77856.201293999999</v>
       </c>
       <c r="AK21" s="1">
-        <v>21.626723</v>
+        <v>21.626722999999998</v>
       </c>
       <c r="AL21" s="1">
-        <v>1389.730000</v>
+        <v>1389.73</v>
       </c>
       <c r="AM21" s="1">
-        <v>-210.012000</v>
+        <v>-210.012</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>77867.098402</v>
+        <v>77867.098402000003</v>
       </c>
       <c r="AP21" s="1">
-        <v>21.629750</v>
+        <v>21.629750000000001</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1412.190000</v>
+        <v>1412.19</v>
       </c>
       <c r="AR21" s="1">
-        <v>-253.361000</v>
+        <v>-253.36099999999999</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>77877.865554</v>
+        <v>77877.865554000004</v>
       </c>
       <c r="AU21" s="1">
-        <v>21.632740</v>
+        <v>21.632739999999998</v>
       </c>
       <c r="AV21" s="1">
-        <v>1437.520000</v>
+        <v>1437.52</v>
       </c>
       <c r="AW21" s="1">
-        <v>-312.585000</v>
+        <v>-312.58499999999998</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>77888.565252</v>
       </c>
       <c r="AZ21" s="1">
-        <v>21.635713</v>
+        <v>21.635712999999999</v>
       </c>
       <c r="BA21" s="1">
-        <v>1457.360000</v>
+        <v>1457.36</v>
       </c>
       <c r="BB21" s="1">
-        <v>-363.903000</v>
+        <v>-363.90300000000002</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>77899.208902</v>
+        <v>77899.208901999998</v>
       </c>
       <c r="BE21" s="1">
         <v>21.638669</v>
       </c>
       <c r="BF21" s="1">
-        <v>1544.300000</v>
+        <v>1544.3</v>
       </c>
       <c r="BG21" s="1">
-        <v>-608.451000</v>
+        <v>-608.45100000000002</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>77910.569767</v>
+        <v>77910.569766999994</v>
       </c>
       <c r="BJ21" s="1">
-        <v>21.641825</v>
+        <v>21.641825000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1700.500000</v>
+        <v>1700.5</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1045.690000</v>
+        <v>-1045.69</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>77921.585920</v>
+        <v>77921.585919999998</v>
       </c>
       <c r="BO21" s="1">
-        <v>21.644885</v>
+        <v>21.644884999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1996.900000</v>
+        <v>1996.9</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1800.360000</v>
+        <v>-1800.36</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>77932.629337</v>
+        <v>77932.629337000006</v>
       </c>
       <c r="BT21" s="1">
-        <v>21.647953</v>
+        <v>21.647953000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>2386.270000</v>
+        <v>2386.27</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2669.430000</v>
+        <v>-2669.43</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>77943.430252</v>
+        <v>77943.430252000006</v>
       </c>
       <c r="BY21" s="1">
-        <v>21.650953</v>
+        <v>21.650953000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2867.570000</v>
+        <v>2867.57</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3609.410000</v>
+        <v>-3609.41</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>77956.316396</v>
+        <v>77956.316395999995</v>
       </c>
       <c r="CD21" s="1">
         <v>21.654532</v>
       </c>
       <c r="CE21" s="1">
-        <v>4279.650000</v>
+        <v>4279.6499999999996</v>
       </c>
       <c r="CF21" s="1">
-        <v>-5859.520000</v>
+        <v>-5859.52</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>77783.065698</v>
+        <v>77783.065698000006</v>
       </c>
       <c r="B22" s="1">
-        <v>21.606407</v>
+        <v>21.606407000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>1247.790000</v>
+        <v>1247.79</v>
       </c>
       <c r="D22" s="1">
-        <v>-304.502000</v>
+        <v>-304.50200000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>77793.445969</v>
+        <v>77793.445968999993</v>
       </c>
       <c r="G22" s="1">
-        <v>21.609291</v>
+        <v>21.609290999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>1273.210000</v>
+        <v>1273.21</v>
       </c>
       <c r="I22" s="1">
-        <v>-263.934000</v>
+        <v>-263.93400000000003</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>77803.643748</v>
+        <v>77803.643748000002</v>
       </c>
       <c r="L22" s="1">
         <v>21.612123</v>
       </c>
       <c r="M22" s="1">
-        <v>1310.070000</v>
+        <v>1310.07</v>
       </c>
       <c r="N22" s="1">
-        <v>-203.489000</v>
+        <v>-203.489</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>77814.180727</v>
+        <v>77814.180726999999</v>
       </c>
       <c r="Q22" s="1">
-        <v>21.615050</v>
+        <v>21.61505</v>
       </c>
       <c r="R22" s="1">
-        <v>1322.630000</v>
+        <v>1322.63</v>
       </c>
       <c r="S22" s="1">
-        <v>-186.100000</v>
+        <v>-186.1</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>77824.663209</v>
+        <v>77824.663209000006</v>
       </c>
       <c r="V22" s="1">
-        <v>21.617962</v>
+        <v>21.617961999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>1336.310000</v>
+        <v>1336.31</v>
       </c>
       <c r="X22" s="1">
-        <v>-172.490000</v>
+        <v>-172.49</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
         <v>77835.535978</v>
       </c>
       <c r="AA22" s="1">
-        <v>21.620982</v>
+        <v>21.620982000000001</v>
       </c>
       <c r="AB22" s="1">
-        <v>1354.660000</v>
+        <v>1354.66</v>
       </c>
       <c r="AC22" s="1">
-        <v>-170.842000</v>
+        <v>-170.84200000000001</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>77846.002080</v>
+        <v>77846.002080000006</v>
       </c>
       <c r="AF22" s="1">
-        <v>21.623889</v>
+        <v>21.623888999999998</v>
       </c>
       <c r="AG22" s="1">
-        <v>1368.210000</v>
+        <v>1368.21</v>
       </c>
       <c r="AH22" s="1">
-        <v>-180.423000</v>
+        <v>-180.423</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>77856.551470</v>
+        <v>77856.551470000006</v>
       </c>
       <c r="AK22" s="1">
-        <v>21.626820</v>
+        <v>21.626819999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>1389.690000</v>
+        <v>1389.69</v>
       </c>
       <c r="AM22" s="1">
-        <v>-210.010000</v>
+        <v>-210.01</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>77867.457008</v>
+        <v>77867.457007999998</v>
       </c>
       <c r="AP22" s="1">
         <v>21.629849</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1412.170000</v>
+        <v>1412.17</v>
       </c>
       <c r="AR22" s="1">
-        <v>-253.394000</v>
+        <v>-253.39400000000001</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>77878.231111</v>
+        <v>77878.231111000001</v>
       </c>
       <c r="AU22" s="1">
         <v>21.632842</v>
       </c>
       <c r="AV22" s="1">
-        <v>1437.520000</v>
+        <v>1437.52</v>
       </c>
       <c r="AW22" s="1">
-        <v>-312.561000</v>
+        <v>-312.56099999999998</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
         <v>77889.239812</v>
       </c>
       <c r="AZ22" s="1">
-        <v>21.635900</v>
+        <v>21.635899999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1457.360000</v>
+        <v>1457.36</v>
       </c>
       <c r="BB22" s="1">
-        <v>-363.938000</v>
+        <v>-363.93799999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>77899.892922</v>
+        <v>77899.892921999999</v>
       </c>
       <c r="BE22" s="1">
         <v>21.638859</v>
       </c>
       <c r="BF22" s="1">
-        <v>1544.280000</v>
+        <v>1544.28</v>
       </c>
       <c r="BG22" s="1">
-        <v>-608.468000</v>
+        <v>-608.46799999999996</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>77910.999799</v>
+        <v>77910.999798999997</v>
       </c>
       <c r="BJ22" s="1">
-        <v>21.641944</v>
+        <v>21.641943999999999</v>
       </c>
       <c r="BK22" s="1">
-        <v>1700.490000</v>
+        <v>1700.49</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1045.660000</v>
+        <v>-1045.6600000000001</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>77922.008039</v>
+        <v>77922.008038999993</v>
       </c>
       <c r="BO22" s="1">
-        <v>21.645002</v>
+        <v>21.645002000000002</v>
       </c>
       <c r="BP22" s="1">
-        <v>1996.950000</v>
+        <v>1996.95</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1800.300000</v>
+        <v>-1800.3</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>77933.038041</v>
+        <v>77933.038041000007</v>
       </c>
       <c r="BT22" s="1">
         <v>21.648066</v>
       </c>
       <c r="BU22" s="1">
-        <v>2387.040000</v>
+        <v>2387.04</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2669.340000</v>
+        <v>-2669.34</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>77943.859259</v>
+        <v>77943.859259000004</v>
       </c>
       <c r="BY22" s="1">
-        <v>21.651072</v>
+        <v>21.651071999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2868.270000</v>
+        <v>2868.27</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3609.710000</v>
+        <v>-3609.71</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>77956.866212</v>
+        <v>77956.866211999994</v>
       </c>
       <c r="CD22" s="1">
-        <v>21.654685</v>
+        <v>21.654685000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>4283.850000</v>
+        <v>4283.8500000000004</v>
       </c>
       <c r="CF22" s="1">
-        <v>-5866.270000</v>
+        <v>-5866.27</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>77783.305796</v>
+        <v>77783.305796000001</v>
       </c>
       <c r="B23" s="1">
-        <v>21.606474</v>
+        <v>21.606473999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>1248.110000</v>
+        <v>1248.1099999999999</v>
       </c>
       <c r="D23" s="1">
-        <v>-304.094000</v>
+        <v>-304.09399999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>77793.795153</v>
+        <v>77793.795152999999</v>
       </c>
       <c r="G23" s="1">
-        <v>21.609388</v>
+        <v>21.609387999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>1272.920000</v>
+        <v>1272.92</v>
       </c>
       <c r="I23" s="1">
-        <v>-263.996000</v>
+        <v>-263.99599999999998</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>77803.986982</v>
+        <v>77803.986982000002</v>
       </c>
       <c r="L23" s="1">
         <v>21.612219</v>
       </c>
       <c r="M23" s="1">
-        <v>1310.220000</v>
+        <v>1310.22</v>
       </c>
       <c r="N23" s="1">
-        <v>-203.653000</v>
+        <v>-203.65299999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>77814.532887</v>
+        <v>77814.532886999994</v>
       </c>
       <c r="Q23" s="1">
-        <v>21.615148</v>
+        <v>21.615148000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>1322.530000</v>
+        <v>1322.53</v>
       </c>
       <c r="S23" s="1">
-        <v>-185.998000</v>
+        <v>-185.99799999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>77825.347688</v>
+        <v>77825.347687999994</v>
       </c>
       <c r="V23" s="1">
-        <v>21.618152</v>
+        <v>21.618151999999998</v>
       </c>
       <c r="W23" s="1">
-        <v>1336.360000</v>
+        <v>1336.36</v>
       </c>
       <c r="X23" s="1">
-        <v>-172.683000</v>
+        <v>-172.68299999999999</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>77835.882720</v>
+        <v>77835.882719999994</v>
       </c>
       <c r="AA23" s="1">
-        <v>21.621079</v>
+        <v>21.621079000000002</v>
       </c>
       <c r="AB23" s="1">
-        <v>1354.830000</v>
+        <v>1354.83</v>
       </c>
       <c r="AC23" s="1">
-        <v>-170.713000</v>
+        <v>-170.71299999999999</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>77846.347277</v>
+        <v>77846.347276999993</v>
       </c>
       <c r="AF23" s="1">
-        <v>21.623985</v>
+        <v>21.623985000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>1368.250000</v>
+        <v>1368.25</v>
       </c>
       <c r="AH23" s="1">
-        <v>-180.554000</v>
+        <v>-180.554</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>77856.898187</v>
+        <v>77856.898186999999</v>
       </c>
       <c r="AK23" s="1">
-        <v>21.626916</v>
+        <v>21.626916000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>1389.700000</v>
+        <v>1389.7</v>
       </c>
       <c r="AM23" s="1">
-        <v>-210.016000</v>
+        <v>-210.01599999999999</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>77868.129086</v>
+        <v>77868.129086000001</v>
       </c>
       <c r="AP23" s="1">
         <v>21.630036</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1412.180000</v>
+        <v>1412.18</v>
       </c>
       <c r="AR23" s="1">
-        <v>-253.368000</v>
+        <v>-253.36799999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>77878.910625</v>
+        <v>77878.910625000004</v>
       </c>
       <c r="AU23" s="1">
-        <v>21.633031</v>
+        <v>21.633030999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>1437.520000</v>
+        <v>1437.52</v>
       </c>
       <c r="AW23" s="1">
-        <v>-312.561000</v>
+        <v>-312.56099999999998</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>77889.676787</v>
+        <v>77889.676787000004</v>
       </c>
       <c r="AZ23" s="1">
         <v>21.636021</v>
       </c>
       <c r="BA23" s="1">
-        <v>1457.360000</v>
+        <v>1457.36</v>
       </c>
       <c r="BB23" s="1">
-        <v>-363.935000</v>
+        <v>-363.935</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>77900.318454</v>
+        <v>77900.318453999993</v>
       </c>
       <c r="BE23" s="1">
-        <v>21.638977</v>
+        <v>21.638977000000001</v>
       </c>
       <c r="BF23" s="1">
-        <v>1544.280000</v>
+        <v>1544.28</v>
       </c>
       <c r="BG23" s="1">
-        <v>-608.462000</v>
+        <v>-608.46199999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>77911.374279</v>
+        <v>77911.374278999996</v>
       </c>
       <c r="BJ23" s="1">
-        <v>21.642048</v>
+        <v>21.642047999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1700.530000</v>
+        <v>1700.53</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1045.730000</v>
+        <v>-1045.73</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>77922.404313</v>
+        <v>77922.404313000006</v>
       </c>
       <c r="BO23" s="1">
-        <v>21.645112</v>
+        <v>21.645112000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1997.050000</v>
+        <v>1997.05</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1800.270000</v>
+        <v>-1800.27</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>77933.470094</v>
+        <v>77933.470094000004</v>
       </c>
       <c r="BT23" s="1">
-        <v>21.648186</v>
+        <v>21.648185999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>2386.860000</v>
+        <v>2386.86</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2668.820000</v>
+        <v>-2668.82</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
         <v>77944.288795</v>
       </c>
       <c r="BY23" s="1">
-        <v>21.651191</v>
+        <v>21.651191000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2868.330000</v>
+        <v>2868.33</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3608.990000</v>
+        <v>-3608.99</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>77957.395081</v>
+        <v>77957.395080999995</v>
       </c>
       <c r="CD23" s="1">
-        <v>21.654832</v>
+        <v>21.654831999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>4273.920000</v>
+        <v>4273.92</v>
       </c>
       <c r="CF23" s="1">
-        <v>-5852.240000</v>
+        <v>-5852.24</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>77783.644526</v>
+        <v>77783.644526000004</v>
       </c>
       <c r="B24" s="1">
-        <v>21.606568</v>
+        <v>21.606567999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>1247.800000</v>
+        <v>1247.8</v>
       </c>
       <c r="D24" s="1">
-        <v>-304.314000</v>
+        <v>-304.31400000000002</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>77794.139873</v>
+        <v>77794.139872999993</v>
       </c>
       <c r="G24" s="1">
-        <v>21.609483</v>
+        <v>21.609483000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>1272.950000</v>
+        <v>1272.95</v>
       </c>
       <c r="I24" s="1">
-        <v>-264.254000</v>
+        <v>-264.25400000000002</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>77804.683331</v>
+        <v>77804.683330999993</v>
       </c>
       <c r="L24" s="1">
-        <v>21.612412</v>
+        <v>21.612411999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>1310.090000</v>
+        <v>1310.0899999999999</v>
       </c>
       <c r="N24" s="1">
-        <v>-203.715000</v>
+        <v>-203.715</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>77815.226294</v>
+        <v>77815.226293999993</v>
       </c>
       <c r="Q24" s="1">
-        <v>21.615341</v>
+        <v>21.615341000000001</v>
       </c>
       <c r="R24" s="1">
-        <v>1322.480000</v>
+        <v>1322.48</v>
       </c>
       <c r="S24" s="1">
-        <v>-185.982000</v>
+        <v>-185.982</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>77825.691879</v>
+        <v>77825.691879000005</v>
       </c>
       <c r="V24" s="1">
-        <v>21.618248</v>
+        <v>21.618248000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>1336.540000</v>
+        <v>1336.54</v>
       </c>
       <c r="X24" s="1">
-        <v>-172.717000</v>
+        <v>-172.71700000000001</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>77836.233850</v>
+        <v>77836.233850000004</v>
       </c>
       <c r="AA24" s="1">
-        <v>21.621176</v>
+        <v>21.621175999999998</v>
       </c>
       <c r="AB24" s="1">
-        <v>1354.640000</v>
+        <v>1354.64</v>
       </c>
       <c r="AC24" s="1">
-        <v>-170.786000</v>
+        <v>-170.786</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>77846.688029</v>
+        <v>77846.688028999997</v>
       </c>
       <c r="AF24" s="1">
-        <v>21.624080</v>
+        <v>21.624079999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>1368.270000</v>
+        <v>1368.27</v>
       </c>
       <c r="AH24" s="1">
-        <v>-180.309000</v>
+        <v>-180.309</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>77857.565820</v>
+        <v>77857.565820000003</v>
       </c>
       <c r="AK24" s="1">
-        <v>21.627102</v>
+        <v>21.627102000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>1389.700000</v>
+        <v>1389.7</v>
       </c>
       <c r="AM24" s="1">
-        <v>-210.027000</v>
+        <v>-210.02699999999999</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>77868.565070</v>
+        <v>77868.565069999997</v>
       </c>
       <c r="AP24" s="1">
-        <v>21.630157</v>
+        <v>21.630157000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1412.170000</v>
+        <v>1412.17</v>
       </c>
       <c r="AR24" s="1">
-        <v>-253.351000</v>
+        <v>-253.351</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>77879.350576</v>
+        <v>77879.350575999997</v>
       </c>
       <c r="AU24" s="1">
         <v>21.633153</v>
       </c>
       <c r="AV24" s="1">
-        <v>1437.500000</v>
+        <v>1437.5</v>
       </c>
       <c r="AW24" s="1">
-        <v>-312.561000</v>
+        <v>-312.56099999999998</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>77890.036917</v>
+        <v>77890.036917000005</v>
       </c>
       <c r="AZ24" s="1">
-        <v>21.636121</v>
+        <v>21.636120999999999</v>
       </c>
       <c r="BA24" s="1">
-        <v>1457.360000</v>
+        <v>1457.36</v>
       </c>
       <c r="BB24" s="1">
-        <v>-363.953000</v>
+        <v>-363.95299999999997</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>77900.707315</v>
+        <v>77900.707315000007</v>
       </c>
       <c r="BE24" s="1">
-        <v>21.639085</v>
+        <v>21.639085000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1544.280000</v>
+        <v>1544.28</v>
       </c>
       <c r="BG24" s="1">
-        <v>-608.490000</v>
+        <v>-608.49</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>77911.751274</v>
+        <v>77911.751273999995</v>
       </c>
       <c r="BJ24" s="1">
         <v>21.642153</v>
       </c>
       <c r="BK24" s="1">
-        <v>1700.460000</v>
+        <v>1700.46</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1045.680000</v>
+        <v>-1045.68</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>77922.832855</v>
+        <v>77922.832855000001</v>
       </c>
       <c r="BO24" s="1">
-        <v>21.645231</v>
+        <v>21.645230999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1996.920000</v>
+        <v>1996.92</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1800.280000</v>
+        <v>-1800.28</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>77933.961096</v>
+        <v>77933.961095999999</v>
       </c>
       <c r="BT24" s="1">
-        <v>21.648323</v>
+        <v>21.648323000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>2387.740000</v>
+        <v>2387.7399999999998</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2668.580000</v>
+        <v>-2668.58</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>77944.704955</v>
+        <v>77944.704954999994</v>
       </c>
       <c r="BY24" s="1">
-        <v>21.651307</v>
+        <v>21.651306999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2868.390000</v>
+        <v>2868.39</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3609.250000</v>
+        <v>-3609.25</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>77957.910921</v>
+        <v>77957.910921000002</v>
       </c>
       <c r="CD24" s="1">
         <v>21.654975</v>
       </c>
       <c r="CE24" s="1">
-        <v>4262.800000</v>
+        <v>4262.8</v>
       </c>
       <c r="CF24" s="1">
-        <v>-5862.030000</v>
+        <v>-5862.03</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>77784.326525</v>
+        <v>77784.326524999997</v>
       </c>
       <c r="B25" s="1">
-        <v>21.606757</v>
+        <v>21.606757000000002</v>
       </c>
       <c r="C25" s="1">
-        <v>1248.130000</v>
+        <v>1248.1300000000001</v>
       </c>
       <c r="D25" s="1">
-        <v>-304.052000</v>
+        <v>-304.05200000000002</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
         <v>77794.834271</v>
@@ -6407,193 +6823,193 @@
         <v>21.609676</v>
       </c>
       <c r="H25" s="1">
-        <v>1273.600000</v>
+        <v>1273.5999999999999</v>
       </c>
       <c r="I25" s="1">
-        <v>-263.600000</v>
+        <v>-263.60000000000002</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>77805.033508</v>
+        <v>77805.033507999993</v>
       </c>
       <c r="L25" s="1">
-        <v>21.612509</v>
+        <v>21.612508999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>1310.300000</v>
+        <v>1310.3</v>
       </c>
       <c r="N25" s="1">
-        <v>-203.785000</v>
+        <v>-203.785</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>77815.578758</v>
+        <v>77815.578758000003</v>
       </c>
       <c r="Q25" s="1">
-        <v>21.615439</v>
+        <v>21.615438999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>1322.590000</v>
+        <v>1322.59</v>
       </c>
       <c r="S25" s="1">
-        <v>-185.904000</v>
+        <v>-185.904</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>77826.035642</v>
+        <v>77826.035642000003</v>
       </c>
       <c r="V25" s="1">
-        <v>21.618343</v>
+        <v>21.618342999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>1336.330000</v>
+        <v>1336.33</v>
       </c>
       <c r="X25" s="1">
-        <v>-172.637000</v>
+        <v>-172.637</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>77836.894552</v>
+        <v>77836.894551999998</v>
       </c>
       <c r="AA25" s="1">
-        <v>21.621360</v>
+        <v>21.621359999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>1354.590000</v>
+        <v>1354.59</v>
       </c>
       <c r="AC25" s="1">
-        <v>-170.781000</v>
+        <v>-170.78100000000001</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>77847.346218</v>
+        <v>77847.346218000006</v>
       </c>
       <c r="AF25" s="1">
-        <v>21.624263</v>
+        <v>21.624262999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>1368.220000</v>
+        <v>1368.22</v>
       </c>
       <c r="AH25" s="1">
-        <v>-180.392000</v>
+        <v>-180.392</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>77857.943245</v>
+        <v>77857.943245000002</v>
       </c>
       <c r="AK25" s="1">
-        <v>21.627206</v>
+        <v>21.627206000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>1389.690000</v>
+        <v>1389.69</v>
       </c>
       <c r="AM25" s="1">
-        <v>-210.041000</v>
+        <v>-210.041</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>77868.925694</v>
+        <v>77868.925694000005</v>
       </c>
       <c r="AP25" s="1">
         <v>21.630257</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1412.190000</v>
+        <v>1412.19</v>
       </c>
       <c r="AR25" s="1">
-        <v>-253.361000</v>
+        <v>-253.36099999999999</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>77879.705712</v>
+        <v>77879.705711999995</v>
       </c>
       <c r="AU25" s="1">
-        <v>21.633252</v>
+        <v>21.633251999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>1437.520000</v>
+        <v>1437.52</v>
       </c>
       <c r="AW25" s="1">
-        <v>-312.549000</v>
+        <v>-312.54899999999998</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>77890.394993</v>
+        <v>77890.394992999994</v>
       </c>
       <c r="AZ25" s="1">
-        <v>21.636221</v>
+        <v>21.636220999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>1457.340000</v>
+        <v>1457.34</v>
       </c>
       <c r="BB25" s="1">
-        <v>-363.975000</v>
+        <v>-363.97500000000002</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>77901.141811</v>
+        <v>77901.141810999994</v>
       </c>
       <c r="BE25" s="1">
-        <v>21.639206</v>
+        <v>21.639206000000001</v>
       </c>
       <c r="BF25" s="1">
-        <v>1544.280000</v>
+        <v>1544.28</v>
       </c>
       <c r="BG25" s="1">
-        <v>-608.441000</v>
+        <v>-608.44100000000003</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>77912.178821</v>
+        <v>77912.178820999994</v>
       </c>
       <c r="BJ25" s="1">
-        <v>21.642272</v>
+        <v>21.642271999999998</v>
       </c>
       <c r="BK25" s="1">
-        <v>1700.470000</v>
+        <v>1700.47</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1045.660000</v>
+        <v>-1045.6600000000001</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>77923.224198</v>
+        <v>77923.224197999996</v>
       </c>
       <c r="BO25" s="1">
-        <v>21.645340</v>
+        <v>21.645340000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1996.900000</v>
+        <v>1996.9</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1800.260000</v>
+        <v>-1800.26</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
         <v>77934.293416</v>
@@ -6602,240 +7018,240 @@
         <v>21.648415</v>
       </c>
       <c r="BU25" s="1">
-        <v>2388.010000</v>
+        <v>2388.0100000000002</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2668.080000</v>
+        <v>-2668.08</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>77945.140425</v>
+        <v>77945.140425000005</v>
       </c>
       <c r="BY25" s="1">
-        <v>21.651428</v>
+        <v>21.651427999999999</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2867.850000</v>
+        <v>2867.85</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3609.040000</v>
+        <v>-3609.04</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
         <v>77958.431719</v>
       </c>
       <c r="CD25" s="1">
-        <v>21.655120</v>
+        <v>21.65512</v>
       </c>
       <c r="CE25" s="1">
-        <v>4273.260000</v>
+        <v>4273.26</v>
       </c>
       <c r="CF25" s="1">
-        <v>-5871.230000</v>
+        <v>-5871.23</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>77784.673725</v>
+        <v>77784.673725000001</v>
       </c>
       <c r="B26" s="1">
-        <v>21.606854</v>
+        <v>21.606853999999998</v>
       </c>
       <c r="C26" s="1">
-        <v>1247.870000</v>
+        <v>1247.8699999999999</v>
       </c>
       <c r="D26" s="1">
-        <v>-304.200000</v>
+        <v>-304.2</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>77795.186927</v>
+        <v>77795.186927000002</v>
       </c>
       <c r="G26" s="1">
-        <v>21.609774</v>
+        <v>21.609774000000002</v>
       </c>
       <c r="H26" s="1">
-        <v>1272.360000</v>
+        <v>1272.3599999999999</v>
       </c>
       <c r="I26" s="1">
-        <v>-264.612000</v>
+        <v>-264.61200000000002</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>77805.379721</v>
+        <v>77805.379721000005</v>
       </c>
       <c r="L26" s="1">
-        <v>21.612605</v>
+        <v>21.612604999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>1310.410000</v>
+        <v>1310.4100000000001</v>
       </c>
       <c r="N26" s="1">
-        <v>-203.409000</v>
+        <v>-203.40899999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>77815.929620</v>
+        <v>77815.929619999995</v>
       </c>
       <c r="Q26" s="1">
-        <v>21.615536</v>
+        <v>21.615535999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>1322.660000</v>
+        <v>1322.66</v>
       </c>
       <c r="S26" s="1">
-        <v>-185.948000</v>
+        <v>-185.94800000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>77826.694522</v>
+        <v>77826.694522000005</v>
       </c>
       <c r="V26" s="1">
-        <v>21.618526</v>
+        <v>21.618525999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>1336.290000</v>
+        <v>1336.29</v>
       </c>
       <c r="X26" s="1">
-        <v>-172.619000</v>
+        <v>-172.619</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>77837.281400</v>
+        <v>77837.281400000007</v>
       </c>
       <c r="AA26" s="1">
-        <v>21.621467</v>
+        <v>21.621466999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>1354.450000</v>
+        <v>1354.45</v>
       </c>
       <c r="AC26" s="1">
-        <v>-170.797000</v>
+        <v>-170.797</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>77847.720699</v>
+        <v>77847.720698999998</v>
       </c>
       <c r="AF26" s="1">
-        <v>21.624367</v>
+        <v>21.624366999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>1368.110000</v>
+        <v>1368.11</v>
       </c>
       <c r="AH26" s="1">
-        <v>-180.304000</v>
+        <v>-180.304</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>77858.293452</v>
+        <v>77858.293451999998</v>
       </c>
       <c r="AK26" s="1">
-        <v>21.627304</v>
+        <v>21.627303999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>1389.690000</v>
+        <v>1389.69</v>
       </c>
       <c r="AM26" s="1">
-        <v>-210.002000</v>
+        <v>-210.00200000000001</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>77869.286253</v>
+        <v>77869.286252999998</v>
       </c>
       <c r="AP26" s="1">
         <v>21.630357</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1412.160000</v>
+        <v>1412.16</v>
       </c>
       <c r="AR26" s="1">
-        <v>-253.373000</v>
+        <v>-253.37299999999999</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>77880.082175</v>
+        <v>77880.082175000003</v>
       </c>
       <c r="AU26" s="1">
-        <v>21.633356</v>
+        <v>21.633355999999999</v>
       </c>
       <c r="AV26" s="1">
-        <v>1437.500000</v>
+        <v>1437.5</v>
       </c>
       <c r="AW26" s="1">
-        <v>-312.557000</v>
+        <v>-312.55700000000002</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>77890.811172</v>
+        <v>77890.811172000002</v>
       </c>
       <c r="AZ26" s="1">
         <v>21.636336</v>
       </c>
       <c r="BA26" s="1">
-        <v>1457.370000</v>
+        <v>1457.37</v>
       </c>
       <c r="BB26" s="1">
-        <v>-363.928000</v>
+        <v>-363.928</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>77901.428499</v>
+        <v>77901.428499000001</v>
       </c>
       <c r="BE26" s="1">
-        <v>21.639286</v>
+        <v>21.639285999999998</v>
       </c>
       <c r="BF26" s="1">
-        <v>1544.290000</v>
+        <v>1544.29</v>
       </c>
       <c r="BG26" s="1">
-        <v>-608.426000</v>
+        <v>-608.42600000000004</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>77912.524036</v>
+        <v>77912.524036000003</v>
       </c>
       <c r="BJ26" s="1">
-        <v>21.642368</v>
+        <v>21.642368000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1700.480000</v>
+        <v>1700.48</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1045.680000</v>
+        <v>-1045.68</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
         <v>77923.644837</v>
@@ -6844,60 +7260,61 @@
         <v>21.645457</v>
       </c>
       <c r="BP26" s="1">
-        <v>1996.840000</v>
+        <v>1996.84</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1800.240000</v>
+        <v>-1800.24</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>77934.723944</v>
+        <v>77934.723943999998</v>
       </c>
       <c r="BT26" s="1">
-        <v>21.648534</v>
+        <v>21.648534000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>2387.630000</v>
+        <v>2387.63</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2667.300000</v>
+        <v>-2667.3</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>77945.569960</v>
+        <v>77945.569959999993</v>
       </c>
       <c r="BY26" s="1">
-        <v>21.651547</v>
+        <v>21.651547000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2868.610000</v>
+        <v>2868.61</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3608.640000</v>
+        <v>-3608.64</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>77958.946072</v>
+        <v>77958.946072000006</v>
       </c>
       <c r="CD26" s="1">
-        <v>21.655263</v>
+        <v>21.655263000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>4271.860000</v>
+        <v>4271.8599999999997</v>
       </c>
       <c r="CF26" s="1">
-        <v>-5872.020000</v>
+        <v>-5872.02</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>